--- a/statistics-runs/balancing-progress.xlsx
+++ b/statistics-runs/balancing-progress.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\astaria-bot-backend\statistics-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE55B67-EA10-4CB2-BA64-A345F6F29DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B809AF9-DCAD-4D3A-9415-90F19AE03CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistics" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>paragon</t>
   </si>
@@ -82,16 +85,25 @@
   </si>
   <si>
     <t>Harmonic Mean</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,7 +136,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -174,28 +192,69 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="0"/>
+      <sheetName val="0-statistics"/>
+      <sheetName val="1"/>
+      <sheetName val="1-statistics"/>
+      <sheetName val="statistics"/>
+      <sheetName val="paragon"/>
+      <sheetName val="highlander"/>
+      <sheetName val="druid"/>
+      <sheetName val="oracle"/>
+      <sheetName val="avatar"/>
+      <sheetName val="shadow"/>
+      <sheetName val="lightbringer"/>
+      <sheetName val="avenger"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:G10" totalsRowCount="1">
-  <autoFilter ref="A1:G9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:H10" totalsRowCount="1">
+  <autoFilter ref="A1:H9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{9054F665-F68F-4619-8BF9-CF17D0E63C21}" name="hero" totalsRowLabel="Harmonic Mean"/>
-    <tableColumn id="2" xr3:uid="{C779B0F3-DD15-4C02-84FF-4B5F8E50E9B6}" name="3" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="5">
+    <tableColumn id="2" xr3:uid="{C779B0F3-DD15-4C02-84FF-4B5F8E50E9B6}" name="3" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="6">
       <totalsRowFormula>HARMEAN(Table1[3])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DAA2685D-29F8-4FA4-806C-524C3483B419}" name="4" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="4">
+    <tableColumn id="3" xr3:uid="{DAA2685D-29F8-4FA4-806C-524C3483B419}" name="4" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="5">
       <totalsRowFormula>HARMEAN(Table1[4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3EA211BC-96BD-47C1-B011-CCDDF6DE02D1}" name="5" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="3">
+    <tableColumn id="4" xr3:uid="{3EA211BC-96BD-47C1-B011-CCDDF6DE02D1}" name="5" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="4">
       <totalsRowFormula>HARMEAN(Table1[5])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{ABB36BA0-6F9D-4DFA-B21B-3F77DAEADBE6}" name="6" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="2">
+    <tableColumn id="5" xr3:uid="{ABB36BA0-6F9D-4DFA-B21B-3F77DAEADBE6}" name="6" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="3">
       <totalsRowFormula>HARMEAN(Table1[6])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1997867E-3D36-4B08-A859-4A330E6CA4EB}" name="7" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="1">
+    <tableColumn id="6" xr3:uid="{1997867E-3D36-4B08-A859-4A330E6CA4EB}" name="7" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="2">
       <totalsRowFormula>HARMEAN(Table1[7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F03F17E2-B4C5-49FA-B50D-6CDBA7D1DB29}" name="8" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="0">
+    <tableColumn id="7" xr3:uid="{F03F17E2-B4C5-49FA-B50D-6CDBA7D1DB29}" name="8" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1">
       <totalsRowFormula>HARMEAN(Table1[8])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{96FF3877-5217-46B6-A305-24B1C092CAD3}" name="9" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="0">
+      <calculatedColumnFormula>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</calculatedColumnFormula>
+      <totalsRowFormula>HARMEAN(Table1[9])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -465,19 +524,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I18" sqref="I18:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -499,8 +558,11 @@
       <c r="G1" t="s">
         <v>13</v>
       </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -522,8 +584,12 @@
       <c r="G2" s="1">
         <v>0.62222222222222223</v>
       </c>
+      <c r="H2" s="1">
+        <f>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</f>
+        <v>0.60952380952380958</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -545,8 +611,12 @@
       <c r="G3" s="1">
         <v>0.48253968253968255</v>
       </c>
+      <c r="H3" s="1">
+        <f>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</f>
+        <v>0.55873015873015874</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -568,8 +638,12 @@
       <c r="G4" s="1">
         <v>0.43492063492063493</v>
       </c>
+      <c r="H4" s="1">
+        <f>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</f>
+        <v>0.43809523809523809</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -591,8 +665,12 @@
       <c r="G5" s="1">
         <v>0.46031746031746029</v>
       </c>
+      <c r="H5" s="1">
+        <f>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</f>
+        <v>0.4507936507936508</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -614,8 +692,12 @@
       <c r="G6" s="1">
         <v>0.43809523809523809</v>
       </c>
+      <c r="H6" s="1">
+        <f>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</f>
+        <v>0.40317460317460319</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -637,8 +719,12 @@
       <c r="G7" s="1">
         <v>0.54603174603174598</v>
       </c>
+      <c r="H7" s="1">
+        <f>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</f>
+        <v>0.60952380952380958</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -660,8 +746,12 @@
       <c r="G8" s="1">
         <v>0.4</v>
       </c>
+      <c r="H8" s="1">
+        <f>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</f>
+        <v>0.41904761904761906</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -683,8 +773,12 @@
       <c r="G9" s="1">
         <v>0.61587301587301591</v>
       </c>
+      <c r="H9" s="1">
+        <f>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</f>
+        <v>0.51111111111111107</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -712,9 +806,24 @@
         <f>HARMEAN(Table1[8])</f>
         <v>0.488134948680715</v>
       </c>
+      <c r="H10" s="1">
+        <f>HARMEAN(Table1[9])</f>
+        <v>0.4879494295503648</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B9">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C9">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -724,7 +833,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C9">
+  <conditionalFormatting sqref="D2:D9">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -734,7 +843,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D9">
+  <conditionalFormatting sqref="E2:E9">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -744,7 +853,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E9">
+  <conditionalFormatting sqref="F2:F9">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -754,7 +863,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F9">
+  <conditionalFormatting sqref="G2:G9">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -764,7 +873,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G9">
+  <conditionalFormatting sqref="B10:H10">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -773,17 +882,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:G10">
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -794,6 +893,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/statistics-runs/balancing-progress.xlsx
+++ b/statistics-runs/balancing-progress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\astaria-bot-backend\statistics-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B809AF9-DCAD-4D3A-9415-90F19AE03CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4704A34B-6C7E-44D2-984B-BAD4FA29EC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>paragon</t>
   </si>
@@ -88,6 +89,9 @@
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -136,7 +140,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -193,6 +203,45 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="0"/>
+      <sheetName val="0-statistics"/>
+      <sheetName val="1"/>
+      <sheetName val="1-statistics"/>
+      <sheetName val="statistics"/>
+      <sheetName val="paragon"/>
+      <sheetName val="highlander"/>
+      <sheetName val="druid"/>
+      <sheetName val="oracle"/>
+      <sheetName val="avatar"/>
+      <sheetName val="shadow"/>
+      <sheetName val="lightbringer"/>
+      <sheetName val="avenger"/>
+      <sheetName val="statistics-run-9"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -230,31 +279,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:H10" totalsRowCount="1">
-  <autoFilter ref="A1:H9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:I10" totalsRowCount="1">
+  <autoFilter ref="A1:I9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{9054F665-F68F-4619-8BF9-CF17D0E63C21}" name="hero" totalsRowLabel="Harmonic Mean"/>
-    <tableColumn id="2" xr3:uid="{C779B0F3-DD15-4C02-84FF-4B5F8E50E9B6}" name="3" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="6">
+    <tableColumn id="2" xr3:uid="{C779B0F3-DD15-4C02-84FF-4B5F8E50E9B6}" name="3" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="7">
       <totalsRowFormula>HARMEAN(Table1[3])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DAA2685D-29F8-4FA4-806C-524C3483B419}" name="4" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="5">
+    <tableColumn id="3" xr3:uid="{DAA2685D-29F8-4FA4-806C-524C3483B419}" name="4" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="6">
       <totalsRowFormula>HARMEAN(Table1[4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3EA211BC-96BD-47C1-B011-CCDDF6DE02D1}" name="5" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="4">
+    <tableColumn id="4" xr3:uid="{3EA211BC-96BD-47C1-B011-CCDDF6DE02D1}" name="5" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="5">
       <totalsRowFormula>HARMEAN(Table1[5])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{ABB36BA0-6F9D-4DFA-B21B-3F77DAEADBE6}" name="6" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="3">
+    <tableColumn id="5" xr3:uid="{ABB36BA0-6F9D-4DFA-B21B-3F77DAEADBE6}" name="6" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="4">
       <totalsRowFormula>HARMEAN(Table1[6])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1997867E-3D36-4B08-A859-4A330E6CA4EB}" name="7" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="2">
+    <tableColumn id="6" xr3:uid="{1997867E-3D36-4B08-A859-4A330E6CA4EB}" name="7" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="3">
       <totalsRowFormula>HARMEAN(Table1[7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F03F17E2-B4C5-49FA-B50D-6CDBA7D1DB29}" name="8" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1">
+    <tableColumn id="7" xr3:uid="{F03F17E2-B4C5-49FA-B50D-6CDBA7D1DB29}" name="8" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="2">
       <totalsRowFormula>HARMEAN(Table1[8])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{96FF3877-5217-46B6-A305-24B1C092CAD3}" name="9" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="0">
+    <tableColumn id="8" xr3:uid="{96FF3877-5217-46B6-A305-24B1C092CAD3}" name="9" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="1">
       <calculatedColumnFormula>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</calculatedColumnFormula>
       <totalsRowFormula>HARMEAN(Table1[9])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{635C965A-57D4-4A00-9304-02A19D4343CC}" name="10" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="0">
+      <calculatedColumnFormula>[2]!Table4[[#This Row],[wins]]/[2]!Table4[[#This Row],[battles]]</calculatedColumnFormula>
+      <totalsRowFormula>HARMEAN(Table1[10])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -524,19 +577,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:I19"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -561,8 +614,11 @@
       <c r="H1" t="s">
         <v>16</v>
       </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -588,8 +644,12 @@
         <f>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</f>
         <v>0.60952380952380958</v>
       </c>
+      <c r="I2" s="1">
+        <f>[2]!Table4[[#This Row],[wins]]/[2]!Table4[[#This Row],[battles]]</f>
+        <v>0.65079365079365081</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -615,8 +675,12 @@
         <f>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</f>
         <v>0.55873015873015874</v>
       </c>
+      <c r="I3" s="1">
+        <f>[2]!Table4[[#This Row],[wins]]/[2]!Table4[[#This Row],[battles]]</f>
+        <v>0.53968253968253965</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -642,8 +706,12 @@
         <f>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</f>
         <v>0.43809523809523809</v>
       </c>
+      <c r="I4" s="1">
+        <f>[2]!Table4[[#This Row],[wins]]/[2]!Table4[[#This Row],[battles]]</f>
+        <v>0.44126984126984126</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -669,8 +737,12 @@
         <f>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</f>
         <v>0.4507936507936508</v>
       </c>
+      <c r="I5" s="1">
+        <f>[2]!Table4[[#This Row],[wins]]/[2]!Table4[[#This Row],[battles]]</f>
+        <v>0.43174603174603177</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -696,8 +768,12 @@
         <f>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</f>
         <v>0.40317460317460319</v>
       </c>
+      <c r="I6" s="1">
+        <f>[2]!Table4[[#This Row],[wins]]/[2]!Table4[[#This Row],[battles]]</f>
+        <v>0.46666666666666667</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -723,8 +799,12 @@
         <f>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</f>
         <v>0.60952380952380958</v>
       </c>
+      <c r="I7" s="1">
+        <f>[2]!Table4[[#This Row],[wins]]/[2]!Table4[[#This Row],[battles]]</f>
+        <v>0.50476190476190474</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -750,8 +830,12 @@
         <f>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</f>
         <v>0.41904761904761906</v>
       </c>
+      <c r="I8" s="1">
+        <f>[2]!Table4[[#This Row],[wins]]/[2]!Table4[[#This Row],[battles]]</f>
+        <v>0.39365079365079364</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -777,8 +861,12 @@
         <f>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</f>
         <v>0.51111111111111107</v>
       </c>
+      <c r="I9" s="1">
+        <f>[2]!Table4[[#This Row],[wins]]/[2]!Table4[[#This Row],[battles]]</f>
+        <v>0.5714285714285714</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -809,11 +897,35 @@
       <c r="H10" s="1">
         <f>HARMEAN(Table1[9])</f>
         <v>0.4879494295503648</v>
+      </c>
+      <c r="I10" s="1">
+        <f>HARMEAN(Table1[10])</f>
+        <v>0.48821563820912017</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B9">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C9">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D9">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -823,7 +935,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C9">
+  <conditionalFormatting sqref="E2:E9">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -833,7 +945,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D9">
+  <conditionalFormatting sqref="F2:F9">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -843,7 +955,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E9">
+  <conditionalFormatting sqref="G2:G9">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -853,7 +965,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F9">
+  <conditionalFormatting sqref="B10:I10">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -862,27 +974,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G9">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:H10">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -894,7 +986,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H9">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I9">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/statistics-runs/balancing-progress.xlsx
+++ b/statistics-runs/balancing-progress.xlsx
@@ -8,17 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\astaria-bot-backend\statistics-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4704A34B-6C7E-44D2-984B-BAD4FA29EC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3928CC3-BCB4-4A47-86E8-CD9DB7138824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistics" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>paragon</t>
   </si>
@@ -93,6 +89,9 @@
   <si>
     <t>10</t>
   </si>
+  <si>
+    <t>11</t>
+  </si>
 </sst>
 </file>
 
@@ -140,7 +139,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -202,112 +207,1028 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="0"/>
-      <sheetName val="0-statistics"/>
-      <sheetName val="1"/>
-      <sheetName val="1-statistics"/>
-      <sheetName val="statistics"/>
-      <sheetName val="paragon"/>
-      <sheetName val="highlander"/>
-      <sheetName val="druid"/>
-      <sheetName val="oracle"/>
-      <sheetName val="avatar"/>
-      <sheetName val="shadow"/>
-      <sheetName val="lightbringer"/>
-      <sheetName val="avenger"/>
-      <sheetName val="statistics-run-9"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Harmonic Mean Statistics</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> for Heroes  (50% - optimal)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>statistics!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>statistics!$B$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.47738475057473262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4720533542335929</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4860294999209443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47980102206747616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48317135788624044</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.488134948680715</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4879494295503648</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48821563820912017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49430516754470855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D277-4D1D-8205-579CAB505A0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="565676336"/>
+        <c:axId val="565677584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="565676336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="565677584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="565677584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="565676336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="0"/>
-      <sheetName val="0-statistics"/>
-      <sheetName val="1"/>
-      <sheetName val="1-statistics"/>
-      <sheetName val="statistics"/>
-      <sheetName val="paragon"/>
-      <sheetName val="highlander"/>
-      <sheetName val="druid"/>
-      <sheetName val="oracle"/>
-      <sheetName val="avatar"/>
-      <sheetName val="shadow"/>
-      <sheetName val="lightbringer"/>
-      <sheetName val="avenger"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E25CE67D-A549-4D44-AC5B-8448B72090F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:I10" totalsRowCount="1">
-  <autoFilter ref="A1:I9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:J10" totalsRowCount="1">
+  <autoFilter ref="A1:J9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{9054F665-F68F-4619-8BF9-CF17D0E63C21}" name="hero" totalsRowLabel="Harmonic Mean"/>
-    <tableColumn id="2" xr3:uid="{C779B0F3-DD15-4C02-84FF-4B5F8E50E9B6}" name="3" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="7">
+    <tableColumn id="2" xr3:uid="{C779B0F3-DD15-4C02-84FF-4B5F8E50E9B6}" name="3" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="12">
       <totalsRowFormula>HARMEAN(Table1[3])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DAA2685D-29F8-4FA4-806C-524C3483B419}" name="4" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="6">
+    <tableColumn id="3" xr3:uid="{DAA2685D-29F8-4FA4-806C-524C3483B419}" name="4" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="11">
       <totalsRowFormula>HARMEAN(Table1[4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3EA211BC-96BD-47C1-B011-CCDDF6DE02D1}" name="5" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="5">
+    <tableColumn id="4" xr3:uid="{3EA211BC-96BD-47C1-B011-CCDDF6DE02D1}" name="5" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="10">
       <totalsRowFormula>HARMEAN(Table1[5])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{ABB36BA0-6F9D-4DFA-B21B-3F77DAEADBE6}" name="6" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="4">
+    <tableColumn id="5" xr3:uid="{ABB36BA0-6F9D-4DFA-B21B-3F77DAEADBE6}" name="6" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="9">
       <totalsRowFormula>HARMEAN(Table1[6])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1997867E-3D36-4B08-A859-4A330E6CA4EB}" name="7" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="3">
+    <tableColumn id="6" xr3:uid="{1997867E-3D36-4B08-A859-4A330E6CA4EB}" name="7" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="8">
       <totalsRowFormula>HARMEAN(Table1[7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F03F17E2-B4C5-49FA-B50D-6CDBA7D1DB29}" name="8" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="2">
+    <tableColumn id="7" xr3:uid="{F03F17E2-B4C5-49FA-B50D-6CDBA7D1DB29}" name="8" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="7">
       <totalsRowFormula>HARMEAN(Table1[8])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{96FF3877-5217-46B6-A305-24B1C092CAD3}" name="9" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="1">
-      <calculatedColumnFormula>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{96FF3877-5217-46B6-A305-24B1C092CAD3}" name="9" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="6">
       <totalsRowFormula>HARMEAN(Table1[9])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{635C965A-57D4-4A00-9304-02A19D4343CC}" name="10" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="0">
-      <calculatedColumnFormula>[2]!Table4[[#This Row],[wins]]/[2]!Table4[[#This Row],[battles]]</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{635C965A-57D4-4A00-9304-02A19D4343CC}" name="10" totalsRowFunction="custom" dataDxfId="0" totalsRowDxfId="5">
       <totalsRowFormula>HARMEAN(Table1[10])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{ADFF34E1-BE0E-498F-B381-93415F858FA2}" name="11" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="4">
+      <totalsRowFormula>HARMEAN(Table1[11])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -577,19 +1498,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -617,8 +1538,11 @@
       <c r="I1" t="s">
         <v>17</v>
       </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -641,15 +1565,16 @@
         <v>0.62222222222222223</v>
       </c>
       <c r="H2" s="1">
-        <f>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</f>
         <v>0.60952380952380958</v>
       </c>
       <c r="I2" s="1">
-        <f>[2]!Table4[[#This Row],[wins]]/[2]!Table4[[#This Row],[battles]]</f>
         <v>0.65079365079365081</v>
       </c>
+      <c r="J2" s="1">
+        <v>0.61904761904761907</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -672,15 +1597,16 @@
         <v>0.48253968253968255</v>
       </c>
       <c r="H3" s="1">
-        <f>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</f>
         <v>0.55873015873015874</v>
       </c>
       <c r="I3" s="1">
-        <f>[2]!Table4[[#This Row],[wins]]/[2]!Table4[[#This Row],[battles]]</f>
         <v>0.53968253968253965</v>
       </c>
+      <c r="J3" s="1">
+        <v>0.52380952380952384</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -703,15 +1629,16 @@
         <v>0.43492063492063493</v>
       </c>
       <c r="H4" s="1">
-        <f>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</f>
         <v>0.43809523809523809</v>
       </c>
       <c r="I4" s="1">
-        <f>[2]!Table4[[#This Row],[wins]]/[2]!Table4[[#This Row],[battles]]</f>
         <v>0.44126984126984126</v>
       </c>
+      <c r="J4" s="1">
+        <v>0.43492063492063493</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -734,15 +1661,16 @@
         <v>0.46031746031746029</v>
       </c>
       <c r="H5" s="1">
-        <f>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</f>
         <v>0.4507936507936508</v>
       </c>
       <c r="I5" s="1">
-        <f>[2]!Table4[[#This Row],[wins]]/[2]!Table4[[#This Row],[battles]]</f>
         <v>0.43174603174603177</v>
       </c>
+      <c r="J5" s="1">
+        <v>0.49523809523809526</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -765,15 +1693,16 @@
         <v>0.43809523809523809</v>
       </c>
       <c r="H6" s="1">
-        <f>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</f>
         <v>0.40317460317460319</v>
       </c>
       <c r="I6" s="1">
-        <f>[2]!Table4[[#This Row],[wins]]/[2]!Table4[[#This Row],[battles]]</f>
         <v>0.46666666666666667</v>
       </c>
+      <c r="J6" s="1">
+        <v>0.44444444444444442</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -796,15 +1725,16 @@
         <v>0.54603174603174598</v>
       </c>
       <c r="H7" s="1">
-        <f>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</f>
         <v>0.60952380952380958</v>
       </c>
       <c r="I7" s="1">
-        <f>[2]!Table4[[#This Row],[wins]]/[2]!Table4[[#This Row],[battles]]</f>
         <v>0.50476190476190474</v>
       </c>
+      <c r="J7" s="1">
+        <v>0.48571428571428571</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -827,15 +1757,16 @@
         <v>0.4</v>
       </c>
       <c r="H8" s="1">
-        <f>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</f>
         <v>0.41904761904761906</v>
       </c>
       <c r="I8" s="1">
-        <f>[2]!Table4[[#This Row],[wins]]/[2]!Table4[[#This Row],[battles]]</f>
         <v>0.39365079365079364</v>
       </c>
+      <c r="J8" s="1">
+        <v>0.46349206349206351</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -858,15 +1789,16 @@
         <v>0.61587301587301591</v>
       </c>
       <c r="H9" s="1">
-        <f>[1]!Table4[[#This Row],[wins]]/[1]!Table4[[#This Row],[battles]]</f>
         <v>0.51111111111111107</v>
       </c>
       <c r="I9" s="1">
-        <f>[2]!Table4[[#This Row],[wins]]/[2]!Table4[[#This Row],[battles]]</f>
         <v>0.5714285714285714</v>
       </c>
+      <c r="J9" s="1">
+        <v>0.53333333333333333</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -901,11 +1833,55 @@
       <c r="I10" s="1">
         <f>HARMEAN(Table1[10])</f>
         <v>0.48821563820912017</v>
+      </c>
+      <c r="J10" s="1">
+        <f>HARMEAN(Table1[11])</f>
+        <v>0.49430516754470855</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B9">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C9">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D9">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E9">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F9">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -915,7 +1891,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C9">
+  <conditionalFormatting sqref="G2:G9">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -925,55 +1901,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D9">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E9">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F9">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G9">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:I10">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
+  <conditionalFormatting sqref="B10:J10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -984,8 +1912,26 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H9">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I9">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -995,7 +1941,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I9">
+  <conditionalFormatting sqref="J2:J9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1006,8 +1952,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/statistics-runs/balancing-progress.xlsx
+++ b/statistics-runs/balancing-progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\astaria-bot-backend\statistics-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3928CC3-BCB4-4A47-86E8-CD9DB7138824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B97C66-4B26-424C-9DF1-52AE7586268C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>paragon</t>
   </si>
@@ -92,6 +92,9 @@
   <si>
     <t>11</t>
   </si>
+  <si>
+    <t>12</t>
+  </si>
 </sst>
 </file>
 
@@ -139,7 +142,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -361,9 +370,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>statistics!$B$1:$J$1</c:f>
+              <c:f>statistics!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -391,15 +400,18 @@
                 <c:pt idx="8">
                   <c:v>11</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>statistics!$B$10:$J$10</c:f>
+              <c:f>statistics!$B$10:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.47738475057473262</c:v>
                 </c:pt>
@@ -426,6 +438,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.49430516754470855</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4947071566267538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1199,36 +1214,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:J10" totalsRowCount="1">
-  <autoFilter ref="A1:J9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:K10" totalsRowCount="1">
+  <autoFilter ref="A1:K9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{9054F665-F68F-4619-8BF9-CF17D0E63C21}" name="hero" totalsRowLabel="Harmonic Mean"/>
-    <tableColumn id="2" xr3:uid="{C779B0F3-DD15-4C02-84FF-4B5F8E50E9B6}" name="3" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="12">
+    <tableColumn id="2" xr3:uid="{C779B0F3-DD15-4C02-84FF-4B5F8E50E9B6}" name="3" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="9">
       <totalsRowFormula>HARMEAN(Table1[3])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DAA2685D-29F8-4FA4-806C-524C3483B419}" name="4" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="11">
+    <tableColumn id="3" xr3:uid="{DAA2685D-29F8-4FA4-806C-524C3483B419}" name="4" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="8">
       <totalsRowFormula>HARMEAN(Table1[4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3EA211BC-96BD-47C1-B011-CCDDF6DE02D1}" name="5" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="10">
+    <tableColumn id="4" xr3:uid="{3EA211BC-96BD-47C1-B011-CCDDF6DE02D1}" name="5" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="7">
       <totalsRowFormula>HARMEAN(Table1[5])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{ABB36BA0-6F9D-4DFA-B21B-3F77DAEADBE6}" name="6" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="9">
+    <tableColumn id="5" xr3:uid="{ABB36BA0-6F9D-4DFA-B21B-3F77DAEADBE6}" name="6" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="6">
       <totalsRowFormula>HARMEAN(Table1[6])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1997867E-3D36-4B08-A859-4A330E6CA4EB}" name="7" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="8">
+    <tableColumn id="6" xr3:uid="{1997867E-3D36-4B08-A859-4A330E6CA4EB}" name="7" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="5">
       <totalsRowFormula>HARMEAN(Table1[7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F03F17E2-B4C5-49FA-B50D-6CDBA7D1DB29}" name="8" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="7">
+    <tableColumn id="7" xr3:uid="{F03F17E2-B4C5-49FA-B50D-6CDBA7D1DB29}" name="8" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="4">
       <totalsRowFormula>HARMEAN(Table1[8])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{96FF3877-5217-46B6-A305-24B1C092CAD3}" name="9" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="6">
+    <tableColumn id="8" xr3:uid="{96FF3877-5217-46B6-A305-24B1C092CAD3}" name="9" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="3">
       <totalsRowFormula>HARMEAN(Table1[9])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{635C965A-57D4-4A00-9304-02A19D4343CC}" name="10" totalsRowFunction="custom" dataDxfId="0" totalsRowDxfId="5">
+    <tableColumn id="9" xr3:uid="{635C965A-57D4-4A00-9304-02A19D4343CC}" name="10" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="2">
       <totalsRowFormula>HARMEAN(Table1[10])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{ADFF34E1-BE0E-498F-B381-93415F858FA2}" name="11" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="4">
+    <tableColumn id="10" xr3:uid="{ADFF34E1-BE0E-498F-B381-93415F858FA2}" name="11" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="1">
       <totalsRowFormula>HARMEAN(Table1[11])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{50ECAE7D-FCA3-4D7E-BFDC-8B094E8F973F}" name="12" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="0">
+      <totalsRowFormula>HARMEAN(Table1[12])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1498,19 +1516,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1541,8 +1559,11 @@
       <c r="J1" t="s">
         <v>18</v>
       </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1573,8 +1594,11 @@
       <c r="J2" s="1">
         <v>0.61904761904761907</v>
       </c>
+      <c r="K2" s="1">
+        <v>0.56507936507936507</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1605,8 +1629,11 @@
       <c r="J3" s="1">
         <v>0.52380952380952384</v>
       </c>
+      <c r="K3" s="1">
+        <v>0.47936507936507938</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1637,8 +1664,11 @@
       <c r="J4" s="1">
         <v>0.43492063492063493</v>
       </c>
+      <c r="K4" s="1">
+        <v>0.47936507936507938</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1669,8 +1699,11 @@
       <c r="J5" s="1">
         <v>0.49523809523809526</v>
       </c>
+      <c r="K5" s="1">
+        <v>0.51428571428571423</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1701,8 +1734,11 @@
       <c r="J6" s="1">
         <v>0.44444444444444442</v>
       </c>
+      <c r="K6" s="1">
+        <v>0.3968253968253968</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1733,8 +1769,11 @@
       <c r="J7" s="1">
         <v>0.48571428571428571</v>
       </c>
+      <c r="K7" s="1">
+        <v>0.48888888888888887</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1765,8 +1804,11 @@
       <c r="J8" s="1">
         <v>0.46349206349206351</v>
       </c>
+      <c r="K8" s="1">
+        <v>0.52380952380952384</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1797,8 +1839,11 @@
       <c r="J9" s="1">
         <v>0.53333333333333333</v>
       </c>
+      <c r="K9" s="1">
+        <v>0.55238095238095242</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1837,11 +1882,35 @@
       <c r="J10" s="1">
         <f>HARMEAN(Table1[11])</f>
         <v>0.49430516754470855</v>
+      </c>
+      <c r="K10" s="1">
+        <f>HARMEAN(Table1[12])</f>
+        <v>0.4947071566267538</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B9">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C9">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D9">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -1851,7 +1920,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C9">
+  <conditionalFormatting sqref="E2:E9">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -1861,7 +1930,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D9">
+  <conditionalFormatting sqref="F2:F9">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -1871,7 +1940,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E9">
+  <conditionalFormatting sqref="G2:G9">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1881,7 +1950,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F9">
+  <conditionalFormatting sqref="B10:J10">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1891,8 +1970,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G9">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="H2:H9">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1901,18 +1980,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:J10">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="I2:I9">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1921,7 +1990,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H9">
+  <conditionalFormatting sqref="J2:J9">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1931,8 +2000,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I9">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="K2:K9">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1941,12 +2010,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J9">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="B10:K10">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>

--- a/statistics-runs/balancing-progress.xlsx
+++ b/statistics-runs/balancing-progress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\astaria-bot-backend\statistics-runs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\astaria-bot-backend\statistics-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B97C66-4B26-424C-9DF1-52AE7586268C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61902298-C759-4101-85ED-73952CA20F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>paragon</t>
   </si>
@@ -95,17 +95,34 @@
   <si>
     <t>12</t>
   </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,42 +152,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
+  <dxfs count="26">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -370,9 +409,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>statistics!$B$1:$K$1</c:f>
+              <c:f>statistics!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -402,16 +441,25 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>statistics!$B$10:$K$10</c:f>
+              <c:f>statistics!$B$10:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.47738475057473262</c:v>
                 </c:pt>
@@ -441,6 +489,15 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.4947071566267538</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45412730296350989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44907958081684796</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.46549649684687511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1214,39 +1271,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:K10" totalsRowCount="1">
-  <autoFilter ref="A1:K9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:N10" totalsRowCount="1">
+  <autoFilter ref="A1:N9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{9054F665-F68F-4619-8BF9-CF17D0E63C21}" name="hero" totalsRowLabel="Harmonic Mean"/>
-    <tableColumn id="2" xr3:uid="{C779B0F3-DD15-4C02-84FF-4B5F8E50E9B6}" name="3" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="9">
+    <tableColumn id="2" xr3:uid="{C779B0F3-DD15-4C02-84FF-4B5F8E50E9B6}" name="3" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="12">
       <totalsRowFormula>HARMEAN(Table1[3])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DAA2685D-29F8-4FA4-806C-524C3483B419}" name="4" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="8">
+    <tableColumn id="3" xr3:uid="{DAA2685D-29F8-4FA4-806C-524C3483B419}" name="4" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="11">
       <totalsRowFormula>HARMEAN(Table1[4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3EA211BC-96BD-47C1-B011-CCDDF6DE02D1}" name="5" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="7">
+    <tableColumn id="4" xr3:uid="{3EA211BC-96BD-47C1-B011-CCDDF6DE02D1}" name="5" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="10">
       <totalsRowFormula>HARMEAN(Table1[5])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{ABB36BA0-6F9D-4DFA-B21B-3F77DAEADBE6}" name="6" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="6">
+    <tableColumn id="5" xr3:uid="{ABB36BA0-6F9D-4DFA-B21B-3F77DAEADBE6}" name="6" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="9">
       <totalsRowFormula>HARMEAN(Table1[6])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1997867E-3D36-4B08-A859-4A330E6CA4EB}" name="7" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="5">
+    <tableColumn id="6" xr3:uid="{1997867E-3D36-4B08-A859-4A330E6CA4EB}" name="7" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="8">
       <totalsRowFormula>HARMEAN(Table1[7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F03F17E2-B4C5-49FA-B50D-6CDBA7D1DB29}" name="8" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="4">
+    <tableColumn id="7" xr3:uid="{F03F17E2-B4C5-49FA-B50D-6CDBA7D1DB29}" name="8" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="7">
       <totalsRowFormula>HARMEAN(Table1[8])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{96FF3877-5217-46B6-A305-24B1C092CAD3}" name="9" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="3">
+    <tableColumn id="8" xr3:uid="{96FF3877-5217-46B6-A305-24B1C092CAD3}" name="9" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="6">
       <totalsRowFormula>HARMEAN(Table1[9])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{635C965A-57D4-4A00-9304-02A19D4343CC}" name="10" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="2">
+    <tableColumn id="9" xr3:uid="{635C965A-57D4-4A00-9304-02A19D4343CC}" name="10" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="5">
       <totalsRowFormula>HARMEAN(Table1[10])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{ADFF34E1-BE0E-498F-B381-93415F858FA2}" name="11" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="1">
+    <tableColumn id="10" xr3:uid="{ADFF34E1-BE0E-498F-B381-93415F858FA2}" name="11" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="4">
       <totalsRowFormula>HARMEAN(Table1[11])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{50ECAE7D-FCA3-4D7E-BFDC-8B094E8F973F}" name="12" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="0">
+    <tableColumn id="11" xr3:uid="{50ECAE7D-FCA3-4D7E-BFDC-8B094E8F973F}" name="12" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="3">
       <totalsRowFormula>HARMEAN(Table1[12])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{23B87AAC-11B7-428A-801F-4A46E206CA45}" name="13" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="2">
+      <totalsRowFormula>HARMEAN(Table1[13])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{11D631BE-05C5-43E6-BF1A-6948CF622016}" name="14" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="1">
+      <totalsRowFormula>HARMEAN(Table1[14])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{2C1650F0-8EF0-4E80-8230-A8F4A1BFA032}" name="15" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="0">
+      <totalsRowFormula>HARMEAN(Table1[15])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1516,19 +1582,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1562,8 +1628,17 @@
       <c r="K1" t="s">
         <v>19</v>
       </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1597,8 +1672,17 @@
       <c r="K2" s="1">
         <v>0.56507936507936507</v>
       </c>
+      <c r="L2" s="2">
+        <v>0.5636363636363636</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.4987012987012987</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.46616541353383456</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1632,8 +1716,17 @@
       <c r="K3" s="1">
         <v>0.47936507936507938</v>
       </c>
+      <c r="L3" s="2">
+        <v>0.50389610389610384</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.45714285714285713</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.43609022556390975</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1667,8 +1760,17 @@
       <c r="K4" s="1">
         <v>0.47936507936507938</v>
       </c>
+      <c r="L4" s="2">
+        <v>0.30649350649350648</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.31948051948051948</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.39849624060150374</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1702,8 +1804,17 @@
       <c r="K5" s="1">
         <v>0.51428571428571423</v>
       </c>
+      <c r="L5" s="2">
+        <v>0.45194805194805193</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.45974025974025973</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.45614035087719296</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1737,8 +1848,17 @@
       <c r="K6" s="1">
         <v>0.3968253968253968</v>
       </c>
+      <c r="L6" s="2">
+        <v>0.50129870129870124</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.55324675324675321</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.45112781954887216</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1772,8 +1892,17 @@
       <c r="K7" s="1">
         <v>0.48888888888888887</v>
       </c>
+      <c r="L7" s="2">
+        <v>0.52727272727272723</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.51378446115288223</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1807,8 +1936,17 @@
       <c r="K8" s="1">
         <v>0.52380952380952384</v>
       </c>
+      <c r="L8" s="2">
+        <v>0.43896103896103894</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.49122807017543857</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1842,8 +1980,17 @@
       <c r="K9" s="1">
         <v>0.55238095238095242</v>
       </c>
+      <c r="L9" s="2">
+        <v>0.45194805194805193</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.54285714285714282</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.54135338345864659</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1887,10 +2034,72 @@
         <f>HARMEAN(Table1[12])</f>
         <v>0.4947071566267538</v>
       </c>
+      <c r="L10" s="1">
+        <f>HARMEAN(Table1[13])</f>
+        <v>0.45412730296350989</v>
+      </c>
+      <c r="M10" s="1">
+        <f>HARMEAN(Table1[14])</f>
+        <v>0.44907958081684796</v>
+      </c>
+      <c r="N10" s="1">
+        <f>HARMEAN(Table1[15])</f>
+        <v>0.46549649684687511</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:B9">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C9">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D9">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E9">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F9">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G9">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -1900,7 +2109,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C9">
+  <conditionalFormatting sqref="B10:N10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -1910,57 +2129,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D9">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E9">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F9">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G9">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:J10">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
+  <conditionalFormatting sqref="H2:H9">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1970,18 +2139,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H9">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I2:I9">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1991,7 +2150,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J9">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2001,7 +2160,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K9">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2010,8 +2169,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:K10">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="B10:N10">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2022,10 +2181,41 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M9">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/statistics-runs/balancing-progress.xlsx
+++ b/statistics-runs/balancing-progress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\astaria-bot-backend\statistics-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61902298-C759-4101-85ED-73952CA20F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB29DD1-5912-47A4-A881-0D2B2DA085D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>paragon</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
 </sst>
 </file>
@@ -160,7 +163,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="28">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -210,6 +216,9 @@
       <font>
         <b val="0"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -409,9 +418,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>statistics!$B$1:$N$1</c:f>
+              <c:f>statistics!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -450,16 +459,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>statistics!$B$10:$N$10</c:f>
+              <c:f>statistics!$B$10:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.47738475057473262</c:v>
                 </c:pt>
@@ -498,6 +510,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.46549649684687511</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.46349497123158589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1271,48 +1286,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:N10" totalsRowCount="1">
-  <autoFilter ref="A1:N9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:O10" totalsRowCount="1">
+  <autoFilter ref="A1:O9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{9054F665-F68F-4619-8BF9-CF17D0E63C21}" name="hero" totalsRowLabel="Harmonic Mean"/>
-    <tableColumn id="2" xr3:uid="{C779B0F3-DD15-4C02-84FF-4B5F8E50E9B6}" name="3" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="12">
+    <tableColumn id="2" xr3:uid="{C779B0F3-DD15-4C02-84FF-4B5F8E50E9B6}" name="3" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="13">
       <totalsRowFormula>HARMEAN(Table1[3])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DAA2685D-29F8-4FA4-806C-524C3483B419}" name="4" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="11">
+    <tableColumn id="3" xr3:uid="{DAA2685D-29F8-4FA4-806C-524C3483B419}" name="4" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="12">
       <totalsRowFormula>HARMEAN(Table1[4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3EA211BC-96BD-47C1-B011-CCDDF6DE02D1}" name="5" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="10">
+    <tableColumn id="4" xr3:uid="{3EA211BC-96BD-47C1-B011-CCDDF6DE02D1}" name="5" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="11">
       <totalsRowFormula>HARMEAN(Table1[5])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{ABB36BA0-6F9D-4DFA-B21B-3F77DAEADBE6}" name="6" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="9">
+    <tableColumn id="5" xr3:uid="{ABB36BA0-6F9D-4DFA-B21B-3F77DAEADBE6}" name="6" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="10">
       <totalsRowFormula>HARMEAN(Table1[6])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1997867E-3D36-4B08-A859-4A330E6CA4EB}" name="7" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="8">
+    <tableColumn id="6" xr3:uid="{1997867E-3D36-4B08-A859-4A330E6CA4EB}" name="7" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="9">
       <totalsRowFormula>HARMEAN(Table1[7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F03F17E2-B4C5-49FA-B50D-6CDBA7D1DB29}" name="8" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="7">
+    <tableColumn id="7" xr3:uid="{F03F17E2-B4C5-49FA-B50D-6CDBA7D1DB29}" name="8" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="8">
       <totalsRowFormula>HARMEAN(Table1[8])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{96FF3877-5217-46B6-A305-24B1C092CAD3}" name="9" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="6">
+    <tableColumn id="8" xr3:uid="{96FF3877-5217-46B6-A305-24B1C092CAD3}" name="9" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="7">
       <totalsRowFormula>HARMEAN(Table1[9])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{635C965A-57D4-4A00-9304-02A19D4343CC}" name="10" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="5">
+    <tableColumn id="9" xr3:uid="{635C965A-57D4-4A00-9304-02A19D4343CC}" name="10" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="6">
       <totalsRowFormula>HARMEAN(Table1[10])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{ADFF34E1-BE0E-498F-B381-93415F858FA2}" name="11" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="4">
+    <tableColumn id="10" xr3:uid="{ADFF34E1-BE0E-498F-B381-93415F858FA2}" name="11" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="5">
       <totalsRowFormula>HARMEAN(Table1[11])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{50ECAE7D-FCA3-4D7E-BFDC-8B094E8F973F}" name="12" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="3">
+    <tableColumn id="11" xr3:uid="{50ECAE7D-FCA3-4D7E-BFDC-8B094E8F973F}" name="12" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="4">
       <totalsRowFormula>HARMEAN(Table1[12])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{23B87AAC-11B7-428A-801F-4A46E206CA45}" name="13" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="2">
+    <tableColumn id="12" xr3:uid="{23B87AAC-11B7-428A-801F-4A46E206CA45}" name="13" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="3">
       <totalsRowFormula>HARMEAN(Table1[13])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{11D631BE-05C5-43E6-BF1A-6948CF622016}" name="14" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="1">
+    <tableColumn id="13" xr3:uid="{11D631BE-05C5-43E6-BF1A-6948CF622016}" name="14" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="2">
       <totalsRowFormula>HARMEAN(Table1[14])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2C1650F0-8EF0-4E80-8230-A8F4A1BFA032}" name="15" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="0">
+    <tableColumn id="14" xr3:uid="{2C1650F0-8EF0-4E80-8230-A8F4A1BFA032}" name="15" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="1">
       <totalsRowFormula>HARMEAN(Table1[15])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{7EF89940-2F64-484B-BE10-767C0421D185}" name="16" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="0">
+      <totalsRowFormula>HARMEAN(Table1[16])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1582,19 +1600,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1637,8 +1655,11 @@
       <c r="N1" t="s">
         <v>22</v>
       </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1681,8 +1702,11 @@
       <c r="N2" s="1">
         <v>0.46616541353383456</v>
       </c>
+      <c r="O2" s="1">
+        <v>0.47272727272727272</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1725,8 +1749,11 @@
       <c r="N3" s="1">
         <v>0.43609022556390975</v>
       </c>
+      <c r="O3" s="1">
+        <v>0.43636363636363634</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1769,8 +1796,11 @@
       <c r="N4" s="1">
         <v>0.39849624060150374</v>
       </c>
+      <c r="O4" s="1">
+        <v>0.41558441558441561</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1813,8 +1843,11 @@
       <c r="N5" s="1">
         <v>0.45614035087719296</v>
       </c>
+      <c r="O5" s="1">
+        <v>0.44675324675324674</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1857,8 +1890,11 @@
       <c r="N6" s="1">
         <v>0.45112781954887216</v>
       </c>
+      <c r="O6" s="1">
+        <v>0.41558441558441561</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1901,8 +1937,11 @@
       <c r="N7" s="1">
         <v>0.51378446115288223</v>
       </c>
+      <c r="O7" s="1">
+        <v>0.48311688311688311</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1945,8 +1984,11 @@
       <c r="N8" s="1">
         <v>0.49122807017543857</v>
       </c>
+      <c r="O8" s="1">
+        <v>0.5688311688311688</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1989,8 +2031,11 @@
       <c r="N9" s="1">
         <v>0.54135338345864659</v>
       </c>
+      <c r="O9" s="1">
+        <v>0.50649350649350644</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2045,11 +2090,25 @@
       <c r="N10" s="1">
         <f>HARMEAN(Table1[15])</f>
         <v>0.46549649684687511</v>
+      </c>
+      <c r="O10" s="1">
+        <f>HARMEAN(Table1[16])</f>
+        <v>0.46349497123158589</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:B9">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C9">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -2059,7 +2118,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C9">
+  <conditionalFormatting sqref="D2:D9">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -2069,7 +2128,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D9">
+  <conditionalFormatting sqref="E2:E9">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2079,7 +2138,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E9">
+  <conditionalFormatting sqref="F2:F9">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2089,7 +2148,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F9">
+  <conditionalFormatting sqref="G2:G9">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -2099,7 +2158,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G9">
+  <conditionalFormatting sqref="B10:O10">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -2109,18 +2178,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:N10">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="H2:H9">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2129,7 +2188,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H9">
+  <conditionalFormatting sqref="I2:I9">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2139,7 +2198,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I9">
+  <conditionalFormatting sqref="J2:J9">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2149,8 +2208,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J9">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="K2:K9">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2159,18 +2218,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K9">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:N10">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="B10:O10">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2182,6 +2231,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L9">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M9">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2191,7 +2250,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M9">
+  <conditionalFormatting sqref="N2:N9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2201,7 +2260,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N9">
+  <conditionalFormatting sqref="O2:O9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/statistics-runs/balancing-progress.xlsx
+++ b/statistics-runs/balancing-progress.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\astaria-bot-backend\statistics-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB29DD1-5912-47A4-A881-0D2B2DA085D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F9F581-9A4D-4061-9B29-AC6818DC431E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistics" sheetId="1" r:id="rId1"/>
+    <sheet name="old" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>paragon</t>
   </si>
@@ -107,6 +108,9 @@
   <si>
     <t>16</t>
   </si>
+  <si>
+    <t>17</t>
+  </si>
 </sst>
 </file>
 
@@ -163,31 +167,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -251,6 +231,36 @@
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -265,6 +275,376 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Harmonic Mean Statistics</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> for Heroes  (46,82% - optimal)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>statistics!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>statistics!$B$10:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.45412730296350989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44907958081684796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46549649684687511</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46349497123158589</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46298181398760019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D277-4D1D-8205-579CAB505A0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="565676336"/>
+        <c:axId val="565677584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="565676336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="565677584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="565677584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="565676336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -418,9 +798,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>statistics!$B$1:$O$1</c:f>
+              <c:f>old!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -451,27 +831,15 @@
                 <c:pt idx="9">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>statistics!$B$10:$O$10</c:f>
+              <c:f>old!$B$10:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.47738475057473262</c:v>
                 </c:pt>
@@ -502,25 +870,13 @@
                 <c:pt idx="9">
                   <c:v>0.4947071566267538</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.45412730296350989</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.44907958081684796</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.46549649684687511</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.46349497123158589</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D277-4D1D-8205-579CAB505A0D}"/>
+              <c16:uniqueId val="{00000000-4FBD-498F-BC46-43B7B9CE15ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -728,7 +1084,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1254,7 +2166,7 @@
       <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -1285,52 +2197,108 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219C9446-BB8B-477D-B56D-541BE712C44F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:O10" totalsRowCount="1">
-  <autoFilter ref="A1:O9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:F10" totalsRowCount="1">
+  <autoFilter ref="A1:F9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9054F665-F68F-4619-8BF9-CF17D0E63C21}" name="hero" totalsRowLabel="Harmonic Mean"/>
-    <tableColumn id="2" xr3:uid="{C779B0F3-DD15-4C02-84FF-4B5F8E50E9B6}" name="3" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="13">
-      <totalsRowFormula>HARMEAN(Table1[3])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{DAA2685D-29F8-4FA4-806C-524C3483B419}" name="4" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="12">
-      <totalsRowFormula>HARMEAN(Table1[4])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{3EA211BC-96BD-47C1-B011-CCDDF6DE02D1}" name="5" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="11">
-      <totalsRowFormula>HARMEAN(Table1[5])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{ABB36BA0-6F9D-4DFA-B21B-3F77DAEADBE6}" name="6" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="10">
-      <totalsRowFormula>HARMEAN(Table1[6])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{1997867E-3D36-4B08-A859-4A330E6CA4EB}" name="7" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="9">
-      <totalsRowFormula>HARMEAN(Table1[7])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{F03F17E2-B4C5-49FA-B50D-6CDBA7D1DB29}" name="8" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="8">
-      <totalsRowFormula>HARMEAN(Table1[8])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{96FF3877-5217-46B6-A305-24B1C092CAD3}" name="9" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="7">
-      <totalsRowFormula>HARMEAN(Table1[9])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{635C965A-57D4-4A00-9304-02A19D4343CC}" name="10" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="6">
-      <totalsRowFormula>HARMEAN(Table1[10])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{ADFF34E1-BE0E-498F-B381-93415F858FA2}" name="11" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="5">
-      <totalsRowFormula>HARMEAN(Table1[11])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{50ECAE7D-FCA3-4D7E-BFDC-8B094E8F973F}" name="12" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="4">
-      <totalsRowFormula>HARMEAN(Table1[12])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{23B87AAC-11B7-428A-801F-4A46E206CA45}" name="13" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="3">
+    <tableColumn id="12" xr3:uid="{23B87AAC-11B7-428A-801F-4A46E206CA45}" name="13" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="4">
       <totalsRowFormula>HARMEAN(Table1[13])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{11D631BE-05C5-43E6-BF1A-6948CF622016}" name="14" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="2">
+    <tableColumn id="13" xr3:uid="{11D631BE-05C5-43E6-BF1A-6948CF622016}" name="14" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="3">
       <totalsRowFormula>HARMEAN(Table1[14])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2C1650F0-8EF0-4E80-8230-A8F4A1BFA032}" name="15" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="1">
+    <tableColumn id="14" xr3:uid="{2C1650F0-8EF0-4E80-8230-A8F4A1BFA032}" name="15" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="2">
       <totalsRowFormula>HARMEAN(Table1[15])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{7EF89940-2F64-484B-BE10-767C0421D185}" name="16" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="0">
+    <tableColumn id="15" xr3:uid="{7EF89940-2F64-484B-BE10-767C0421D185}" name="16" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="1">
       <totalsRowFormula>HARMEAN(Table1[16])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{9E3C59B0-6709-4251-972D-EAEB78EE2D39}" name="17" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="0">
+      <totalsRowFormula>HARMEAN(Table1[17])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FACA4A67-F358-4E61-843A-A94ABE036E5E}" name="Table13" displayName="Table13" ref="A1:K10" totalsRowCount="1">
+  <autoFilter ref="A1:K9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{6701B958-D557-4A63-B324-DE3BF0569903}" name="hero" totalsRowLabel="Harmonic Mean"/>
+    <tableColumn id="2" xr3:uid="{0B915FFC-BE3D-4B9C-915B-B39062E0443A}" name="3" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
+      <totalsRowFormula>HARMEAN(Table13[3])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{C2436A7A-817C-4295-99FE-D9CF41244BCC}" name="4" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
+      <totalsRowFormula>HARMEAN(Table13[4])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{FB891A89-DA25-4151-B1EC-38AE54996BE0}" name="5" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
+      <totalsRowFormula>HARMEAN(Table13[5])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{4B94954F-D922-40C9-A641-8BF8B51ADF79}" name="6" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
+      <totalsRowFormula>HARMEAN(Table13[6])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{1E55BC43-7550-4217-95FF-BE48B312F2CE}" name="7" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+      <totalsRowFormula>HARMEAN(Table13[7])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{34255DB4-C675-4ED2-890E-A4845855326F}" name="8" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+      <totalsRowFormula>HARMEAN(Table13[8])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{87575DE7-4611-486F-935F-E5C2DC546BD7}" name="9" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+      <totalsRowFormula>HARMEAN(Table13[9])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{59990D58-FD7C-40E6-8A1A-2538EEF85B4E}" name="10" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+      <totalsRowFormula>HARMEAN(Table13[10])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{5D234A32-4748-452C-B4A6-855513592E73}" name="11" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+      <totalsRowFormula>HARMEAN(Table13[11])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{9B138BD6-395C-45AC-80DF-16AD7603C98E}" name="12" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+      <totalsRowFormula>HARMEAN(Table13[12])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1600,506 +2568,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="15" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.68253968253968256</v>
+      <c r="B2" s="2">
+        <v>0.5636363636363636</v>
       </c>
       <c r="C2" s="1">
-        <v>0.66349206349206347</v>
+        <v>0.4987012987012987</v>
       </c>
       <c r="D2" s="1">
-        <v>0.67301587301587307</v>
+        <v>0.46616541353383456</v>
       </c>
       <c r="E2" s="1">
-        <v>0.69841269841269837</v>
+        <v>0.47272727272727272</v>
       </c>
       <c r="F2" s="1">
-        <v>0.6603174603174603</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.62222222222222223</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.60952380952380958</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.65079365079365081</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.61904761904761907</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.56507936507936507</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.5636363636363636</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0.4987012987012987</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0.46616541353383456</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0.47272727272727272</v>
+        <v>0.47012987012987012</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.48253968253968255</v>
+      <c r="B3" s="2">
+        <v>0.50389610389610384</v>
       </c>
       <c r="C3" s="1">
-        <v>0.43174603174603177</v>
+        <v>0.45714285714285713</v>
       </c>
       <c r="D3" s="1">
-        <v>0.41587301587301589</v>
+        <v>0.43609022556390975</v>
       </c>
       <c r="E3" s="1">
-        <v>0.5714285714285714</v>
+        <v>0.43636363636363634</v>
       </c>
       <c r="F3" s="1">
-        <v>0.53650793650793649</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.48253968253968255</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.55873015873015874</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.53968253968253965</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.52380952380952384</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.47936507936507938</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.50389610389610384</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.45714285714285713</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.43609022556390975</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0.43636363636363634</v>
+        <v>0.45974025974025973</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.41904761904761906</v>
+      <c r="B4" s="2">
+        <v>0.30649350649350648</v>
       </c>
       <c r="C4" s="1">
-        <v>0.34603174603174602</v>
+        <v>0.31948051948051948</v>
       </c>
       <c r="D4" s="1">
-        <v>0.53968253968253965</v>
+        <v>0.39849624060150374</v>
       </c>
       <c r="E4" s="1">
-        <v>0.38412698412698415</v>
+        <v>0.41558441558441561</v>
       </c>
       <c r="F4" s="1">
-        <v>0.44761904761904764</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.43492063492063493</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.43809523809523809</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.44126984126984126</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.43492063492063493</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.47936507936507938</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0.30649350649350648</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.31948051948051948</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.39849624060150374</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0.41558441558441561</v>
+        <v>0.39220779220779223</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.35873015873015873</v>
+      <c r="B5" s="2">
+        <v>0.45194805194805193</v>
       </c>
       <c r="C5" s="1">
-        <v>0.41587301587301589</v>
+        <v>0.45974025974025973</v>
       </c>
       <c r="D5" s="1">
-        <v>0.42222222222222222</v>
+        <v>0.45614035087719296</v>
       </c>
       <c r="E5" s="1">
-        <v>0.3746031746031746</v>
+        <v>0.44675324675324674</v>
       </c>
       <c r="F5" s="1">
-        <v>0.38730158730158731</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.46031746031746029</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.4507936507936508</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.43174603174603177</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.49523809523809526</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.51428571428571423</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0.45194805194805193</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.45974025974025973</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0.45614035087719296</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0.44675324675324674</v>
+        <v>0.39480519480519483</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.42222222222222222</v>
+      <c r="B6" s="2">
+        <v>0.50129870129870124</v>
       </c>
       <c r="C6" s="1">
-        <v>0.42222222222222222</v>
+        <v>0.55324675324675321</v>
       </c>
       <c r="D6" s="1">
-        <v>0.40634920634920635</v>
+        <v>0.45112781954887216</v>
       </c>
       <c r="E6" s="1">
-        <v>0.41904761904761906</v>
+        <v>0.41558441558441561</v>
       </c>
       <c r="F6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.43809523809523809</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.40317460317460319</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.3968253968253968</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0.50129870129870124</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.55324675324675321</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.45112781954887216</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0.41558441558441561</v>
+        <v>0.51948051948051943</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.45714285714285713</v>
+      <c r="B7" s="2">
+        <v>0.52727272727272723</v>
       </c>
       <c r="C7" s="1">
-        <v>0.53333333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D7" s="1">
-        <v>0.52380952380952384</v>
+        <v>0.51378446115288223</v>
       </c>
       <c r="E7" s="1">
-        <v>0.56825396825396823</v>
+        <v>0.48311688311688311</v>
       </c>
       <c r="F7" s="1">
-        <v>0.51111111111111107</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.54603174603174598</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.60952380952380958</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.50476190476190474</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.48571428571428571</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.48888888888888887</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0.52727272727272723</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0.51378446115288223</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0.48311688311688311</v>
+        <v>0.52467532467532463</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.49206349206349204</v>
+      <c r="B8" s="2">
+        <v>0.43896103896103894</v>
       </c>
       <c r="C8" s="1">
-        <v>0.44761904761904764</v>
+        <v>0.34285714285714286</v>
       </c>
       <c r="D8" s="1">
-        <v>0.4507936507936508</v>
+        <v>0.49122807017543857</v>
       </c>
       <c r="E8" s="1">
-        <v>0.46984126984126984</v>
+        <v>0.5688311688311688</v>
       </c>
       <c r="F8" s="1">
-        <v>0.43492063492063493</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.41904761904761906</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.39365079365079364</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.46349206349206351</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.52380952380952384</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0.43896103896103894</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0.34285714285714286</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0.49122807017543857</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0.5688311688311688</v>
+        <v>0.48831168831168831</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.68571428571428572</v>
+      <c r="B9" s="2">
+        <v>0.45194805194805193</v>
       </c>
       <c r="C9" s="1">
-        <v>0.73968253968253972</v>
+        <v>0.54285714285714282</v>
       </c>
       <c r="D9" s="1">
-        <v>0.56825396825396823</v>
+        <v>0.54135338345864659</v>
       </c>
       <c r="E9" s="1">
-        <v>0.51428571428571423</v>
+        <v>0.50649350649350644</v>
       </c>
       <c r="F9" s="1">
-        <v>0.62222222222222223</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.61587301587301591</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.51111111111111107</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.55238095238095242</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0.45194805194805193</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0.54285714285714282</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0.54135338345864659</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0.50649350649350644</v>
+        <v>0.4961038961038961</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1">
-        <f>HARMEAN(Table1[3])</f>
-        <v>0.47738475057473262</v>
-      </c>
-      <c r="C10" s="1">
-        <f>HARMEAN(Table1[4])</f>
-        <v>0.4720533542335929</v>
-      </c>
-      <c r="D10" s="1">
-        <f>HARMEAN(Table1[5])</f>
-        <v>0.4860294999209443</v>
-      </c>
-      <c r="E10" s="1">
-        <f>HARMEAN(Table1[6])</f>
-        <v>0.47980102206747616</v>
-      </c>
-      <c r="F10" s="1">
-        <f>HARMEAN(Table1[7])</f>
-        <v>0.48317135788624044</v>
-      </c>
-      <c r="G10" s="1">
-        <f>HARMEAN(Table1[8])</f>
-        <v>0.488134948680715</v>
-      </c>
-      <c r="H10" s="1">
-        <f>HARMEAN(Table1[9])</f>
-        <v>0.4879494295503648</v>
-      </c>
-      <c r="I10" s="1">
-        <f>HARMEAN(Table1[10])</f>
-        <v>0.48821563820912017</v>
-      </c>
-      <c r="J10" s="1">
-        <f>HARMEAN(Table1[11])</f>
-        <v>0.49430516754470855</v>
-      </c>
-      <c r="K10" s="1">
-        <f>HARMEAN(Table1[12])</f>
-        <v>0.4947071566267538</v>
-      </c>
-      <c r="L10" s="1">
         <f>HARMEAN(Table1[13])</f>
         <v>0.45412730296350989</v>
       </c>
-      <c r="M10" s="1">
+      <c r="C10" s="1">
         <f>HARMEAN(Table1[14])</f>
         <v>0.44907958081684796</v>
       </c>
-      <c r="N10" s="1">
+      <c r="D10" s="1">
         <f>HARMEAN(Table1[15])</f>
         <v>0.46549649684687511</v>
       </c>
-      <c r="O10" s="1">
+      <c r="E10" s="1">
         <f>HARMEAN(Table1[16])</f>
         <v>0.46349497123158589</v>
+      </c>
+      <c r="F10" s="1">
+        <f>HARMEAN(Table1[17])</f>
+        <v>0.46298181398760019</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:B9">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2109,7 +2798,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C9">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2119,7 +2808,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D9">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2129,7 +2818,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E9">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2139,7 +2828,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F9">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2148,18 +2837,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G9">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:O10">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="B10:F10">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2169,7 +2848,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2178,48 +2857,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H9">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I9">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J9">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K9">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:O10">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="B10:F10">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2230,8 +2869,392 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L9">
-    <cfRule type="colorScale" priority="4">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38254C8F-A721-429C-A613-B8589ADDA93E}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.68253968253968256</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.66349206349206347</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.67301587301587307</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.69841269841269837</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.6603174603174603</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.60952380952380958</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.65079365079365081</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.56507936507936507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.48253968253968255</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.43174603174603177</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.41587301587301589</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.53650793650793649</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.48253968253968255</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.55873015873015874</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.53968253968253965</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.47936507936507938</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.41904761904761906</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.34603174603174602</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.53968253968253965</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.38412698412698415</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.44761904761904764</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.43492063492063493</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.43809523809523809</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.44126984126984126</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.43492063492063493</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.47936507936507938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.35873015873015873</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.41587301587301589</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.3746031746031746</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.38730158730158731</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.46031746031746029</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.4507936507936508</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.43174603174603177</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.49523809523809526</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.51428571428571423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.40634920634920635</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.41904761904761906</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.43809523809523809</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.40317460317460319</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.3968253968253968</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.45714285714285713</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.56825396825396823</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.54603174603174598</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.60952380952380958</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.50476190476190474</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.48571428571428571</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.48888888888888887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.49206349206349204</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.44761904761904764</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.4507936507936508</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.46984126984126984</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.43492063492063493</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.41904761904761906</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.39365079365079364</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.46349206349206351</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.52380952380952384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.68571428571428572</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.73968253968253972</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.56825396825396823</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.51428571428571423</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.61587301587301591</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.55238095238095242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <f>HARMEAN(Table13[3])</f>
+        <v>0.47738475057473262</v>
+      </c>
+      <c r="C10" s="1">
+        <f>HARMEAN(Table13[4])</f>
+        <v>0.4720533542335929</v>
+      </c>
+      <c r="D10" s="1">
+        <f>HARMEAN(Table13[5])</f>
+        <v>0.4860294999209443</v>
+      </c>
+      <c r="E10" s="1">
+        <f>HARMEAN(Table13[6])</f>
+        <v>0.47980102206747616</v>
+      </c>
+      <c r="F10" s="1">
+        <f>HARMEAN(Table13[7])</f>
+        <v>0.48317135788624044</v>
+      </c>
+      <c r="G10" s="1">
+        <f>HARMEAN(Table13[8])</f>
+        <v>0.488134948680715</v>
+      </c>
+      <c r="H10" s="1">
+        <f>HARMEAN(Table13[9])</f>
+        <v>0.4879494295503648</v>
+      </c>
+      <c r="I10" s="1">
+        <f>HARMEAN(Table13[10])</f>
+        <v>0.48821563820912017</v>
+      </c>
+      <c r="J10" s="1">
+        <f>HARMEAN(Table13[11])</f>
+        <v>0.49430516754470855</v>
+      </c>
+      <c r="K10" s="1">
+        <f>HARMEAN(Table13[12])</f>
+        <v>0.4947071566267538</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B9">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2240,8 +3263,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M9">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="C2:C9">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2250,8 +3273,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N9">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="D2:D9">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2260,12 +3283,104 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O9">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="E2:E9">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F9">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G9">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H9">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I9">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J9">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K9">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:K10">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:K10">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>

--- a/statistics-runs/balancing-progress.xlsx
+++ b/statistics-runs/balancing-progress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\astaria-bot-backend\statistics-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F9F581-9A4D-4061-9B29-AC6818DC431E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFE76AB-6B3F-463F-9AA4-A1EE644AB8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="statistics" sheetId="1" r:id="rId1"/>
     <sheet name="old" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>paragon</t>
   </si>
@@ -111,12 +114,15 @@
   <si>
     <t>17</t>
   </si>
+  <si>
+    <t>18</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +142,15 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -159,43 +174,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="32">
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -259,6 +248,39 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
   </dxfs>
@@ -428,9 +450,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>statistics!$B$1:$F$1</c:f>
+              <c:f>statistics!$B$1:$G$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -446,15 +468,18 @@
                 <c:pt idx="4">
                   <c:v>17</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>statistics!$B$10:$F$10</c:f>
+              <c:f>statistics!$B$10:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.45412730296350989</c:v>
                 </c:pt>
@@ -469,6 +494,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.46298181398760019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46759691053419777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2240,25 +2268,82 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="0"/>
+      <sheetName val="0-stat"/>
+      <sheetName val="1"/>
+      <sheetName val="1-stat"/>
+      <sheetName val="2"/>
+      <sheetName val="2-stat"/>
+      <sheetName val="3"/>
+      <sheetName val="3-stat"/>
+      <sheetName val="4"/>
+      <sheetName val="4-stat"/>
+      <sheetName val="5"/>
+      <sheetName val="5-stat"/>
+      <sheetName val="statistics"/>
+      <sheetName val="paragon"/>
+      <sheetName val="highlander"/>
+      <sheetName val="druid"/>
+      <sheetName val="oracle"/>
+      <sheetName val="avatar"/>
+      <sheetName val="shadow"/>
+      <sheetName val="lightbringer"/>
+      <sheetName val="avenger"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:F10" totalsRowCount="1">
-  <autoFilter ref="A1:F9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:G10" totalsRowCount="1">
+  <autoFilter ref="A1:G9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{9054F665-F68F-4619-8BF9-CF17D0E63C21}" name="hero" totalsRowLabel="Harmonic Mean"/>
-    <tableColumn id="12" xr3:uid="{23B87AAC-11B7-428A-801F-4A46E206CA45}" name="13" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="4">
+    <tableColumn id="12" xr3:uid="{23B87AAC-11B7-428A-801F-4A46E206CA45}" name="13" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="5">
       <totalsRowFormula>HARMEAN(Table1[13])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{11D631BE-05C5-43E6-BF1A-6948CF622016}" name="14" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="3">
+    <tableColumn id="13" xr3:uid="{11D631BE-05C5-43E6-BF1A-6948CF622016}" name="14" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="4">
       <totalsRowFormula>HARMEAN(Table1[14])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2C1650F0-8EF0-4E80-8230-A8F4A1BFA032}" name="15" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="2">
+    <tableColumn id="14" xr3:uid="{2C1650F0-8EF0-4E80-8230-A8F4A1BFA032}" name="15" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="3">
       <totalsRowFormula>HARMEAN(Table1[15])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{7EF89940-2F64-484B-BE10-767C0421D185}" name="16" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="1">
+    <tableColumn id="15" xr3:uid="{7EF89940-2F64-484B-BE10-767C0421D185}" name="16" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="2">
       <totalsRowFormula>HARMEAN(Table1[16])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{9E3C59B0-6709-4251-972D-EAEB78EE2D39}" name="17" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="0">
+    <tableColumn id="16" xr3:uid="{9E3C59B0-6709-4251-972D-EAEB78EE2D39}" name="17" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="1">
       <totalsRowFormula>HARMEAN(Table1[17])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{BD5D8554-7464-4C9C-99E9-84792904905B}" name="18" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="0">
+      <calculatedColumnFormula>[1]!HeroStatistics[[#This Row],[wins]]/[1]!HeroStatistics[[#This Row],[battles]]</calculatedColumnFormula>
+      <totalsRowFormula>HARMEAN(Table1[18])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2270,34 +2355,34 @@
   <autoFilter ref="A1:K9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{6701B958-D557-4A63-B324-DE3BF0569903}" name="hero" totalsRowLabel="Harmonic Mean"/>
-    <tableColumn id="2" xr3:uid="{0B915FFC-BE3D-4B9C-915B-B39062E0443A}" name="3" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="2" xr3:uid="{0B915FFC-BE3D-4B9C-915B-B39062E0443A}" name="3" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="25">
       <totalsRowFormula>HARMEAN(Table13[3])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C2436A7A-817C-4295-99FE-D9CF41244BCC}" name="4" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="3" xr3:uid="{C2436A7A-817C-4295-99FE-D9CF41244BCC}" name="4" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="23">
       <totalsRowFormula>HARMEAN(Table13[4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FB891A89-DA25-4151-B1EC-38AE54996BE0}" name="5" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="4" xr3:uid="{FB891A89-DA25-4151-B1EC-38AE54996BE0}" name="5" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="21">
       <totalsRowFormula>HARMEAN(Table13[5])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4B94954F-D922-40C9-A641-8BF8B51ADF79}" name="6" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="5" xr3:uid="{4B94954F-D922-40C9-A641-8BF8B51ADF79}" name="6" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="19">
       <totalsRowFormula>HARMEAN(Table13[6])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1E55BC43-7550-4217-95FF-BE48B312F2CE}" name="7" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="6" xr3:uid="{1E55BC43-7550-4217-95FF-BE48B312F2CE}" name="7" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="17">
       <totalsRowFormula>HARMEAN(Table13[7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{34255DB4-C675-4ED2-890E-A4845855326F}" name="8" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="7" xr3:uid="{34255DB4-C675-4ED2-890E-A4845855326F}" name="8" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="15">
       <totalsRowFormula>HARMEAN(Table13[8])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{87575DE7-4611-486F-935F-E5C2DC546BD7}" name="9" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="8" xr3:uid="{87575DE7-4611-486F-935F-E5C2DC546BD7}" name="9" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="13">
       <totalsRowFormula>HARMEAN(Table13[9])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{59990D58-FD7C-40E6-8A1A-2538EEF85B4E}" name="10" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="9" xr3:uid="{59990D58-FD7C-40E6-8A1A-2538EEF85B4E}" name="10" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="11">
       <totalsRowFormula>HARMEAN(Table13[10])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5D234A32-4748-452C-B4A6-855513592E73}" name="11" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="10" xr3:uid="{5D234A32-4748-452C-B4A6-855513592E73}" name="11" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="9">
       <totalsRowFormula>HARMEAN(Table13[11])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{9B138BD6-395C-45AC-80DF-16AD7603C98E}" name="12" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="11" xr3:uid="{9B138BD6-395C-45AC-80DF-16AD7603C98E}" name="12" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="7">
       <totalsRowFormula>HARMEAN(Table13[12])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2568,19 +2653,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2599,8 +2684,11 @@
       <c r="F1" t="s">
         <v>24</v>
       </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2619,8 +2707,12 @@
       <c r="F2" s="1">
         <v>0.47012987012987012</v>
       </c>
+      <c r="G2" s="3">
+        <f>[1]!HeroStatistics[[#This Row],[wins]]/[1]!HeroStatistics[[#This Row],[battles]]</f>
+        <v>0.48831168831168831</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2639,8 +2731,12 @@
       <c r="F3" s="1">
         <v>0.45974025974025973</v>
       </c>
+      <c r="G3" s="3">
+        <f>[1]!HeroStatistics[[#This Row],[wins]]/[1]!HeroStatistics[[#This Row],[battles]]</f>
+        <v>0.46493506493506492</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2659,8 +2755,12 @@
       <c r="F4" s="1">
         <v>0.39220779220779223</v>
       </c>
+      <c r="G4" s="3">
+        <f>[1]!HeroStatistics[[#This Row],[wins]]/[1]!HeroStatistics[[#This Row],[battles]]</f>
+        <v>0.43896103896103894</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2679,8 +2779,12 @@
       <c r="F5" s="1">
         <v>0.39480519480519483</v>
       </c>
+      <c r="G5" s="3">
+        <f>[1]!HeroStatistics[[#This Row],[wins]]/[1]!HeroStatistics[[#This Row],[battles]]</f>
+        <v>0.47792207792207791</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2699,8 +2803,12 @@
       <c r="F6" s="1">
         <v>0.51948051948051943</v>
       </c>
+      <c r="G6" s="3">
+        <f>[1]!HeroStatistics[[#This Row],[wins]]/[1]!HeroStatistics[[#This Row],[battles]]</f>
+        <v>0.46753246753246752</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2719,8 +2827,12 @@
       <c r="F7" s="1">
         <v>0.52467532467532463</v>
       </c>
+      <c r="G7" s="3">
+        <f>[1]!HeroStatistics[[#This Row],[wins]]/[1]!HeroStatistics[[#This Row],[battles]]</f>
+        <v>0.47792207792207791</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2739,8 +2851,12 @@
       <c r="F8" s="1">
         <v>0.48831168831168831</v>
       </c>
+      <c r="G8" s="3">
+        <f>[1]!HeroStatistics[[#This Row],[wins]]/[1]!HeroStatistics[[#This Row],[battles]]</f>
+        <v>0.44675324675324674</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2759,8 +2875,12 @@
       <c r="F9" s="1">
         <v>0.4961038961038961</v>
       </c>
+      <c r="G9" s="3">
+        <f>[1]!HeroStatistics[[#This Row],[wins]]/[1]!HeroStatistics[[#This Row],[battles]]</f>
+        <v>0.48311688311688311</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2783,11 +2903,25 @@
       <c r="F10" s="1">
         <f>HARMEAN(Table1[17])</f>
         <v>0.46298181398760019</v>
+      </c>
+      <c r="G10" s="1">
+        <f>HARMEAN(Table1[18])</f>
+        <v>0.46759691053419777</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:B9">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C9">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2797,7 +2931,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C9">
+  <conditionalFormatting sqref="D2:D9">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2807,7 +2941,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D9">
+  <conditionalFormatting sqref="E2:E9">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2817,7 +2951,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E9">
+  <conditionalFormatting sqref="F2:F9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2827,18 +2961,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F9">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:F10">
-    <cfRule type="colorScale" priority="31">
+  <conditionalFormatting sqref="B10:G10">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2848,7 +2972,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2857,14 +2981,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:F10">
-    <cfRule type="colorScale" priority="33">
+  <conditionalFormatting sqref="B10:G10">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>

--- a/statistics-runs/balancing-progress.xlsx
+++ b/statistics-runs/balancing-progress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\astaria-bot-backend\statistics-runs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\astaria-bot-backend\statistics-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFE76AB-6B3F-463F-9AA4-A1EE644AB8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE661F4-63FF-4D7E-94F1-13675BB01496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="statistics" sheetId="1" r:id="rId1"/>
     <sheet name="old" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>paragon</t>
   </si>
@@ -117,6 +114,9 @@
   <si>
     <t>18</t>
   </si>
+  <si>
+    <t>19</t>
+  </si>
 </sst>
 </file>
 
@@ -139,18 +139,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -177,14 +176,81 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="34">
     <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -245,42 +311,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
   </dxfs>
@@ -450,9 +480,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>statistics!$B$1:$G$1</c:f>
+              <c:f>statistics!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -471,15 +501,18 @@
                 <c:pt idx="5">
                   <c:v>18</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>statistics!$B$10:$G$10</c:f>
+              <c:f>statistics!$B$10:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.45412730296350989</c:v>
                 </c:pt>
@@ -497,6 +530,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.46759691053419777</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46642585371888184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2268,82 +2304,31 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="0"/>
-      <sheetName val="0-stat"/>
-      <sheetName val="1"/>
-      <sheetName val="1-stat"/>
-      <sheetName val="2"/>
-      <sheetName val="2-stat"/>
-      <sheetName val="3"/>
-      <sheetName val="3-stat"/>
-      <sheetName val="4"/>
-      <sheetName val="4-stat"/>
-      <sheetName val="5"/>
-      <sheetName val="5-stat"/>
-      <sheetName val="statistics"/>
-      <sheetName val="paragon"/>
-      <sheetName val="highlander"/>
-      <sheetName val="druid"/>
-      <sheetName val="oracle"/>
-      <sheetName val="avatar"/>
-      <sheetName val="shadow"/>
-      <sheetName val="lightbringer"/>
-      <sheetName val="avenger"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:G10" totalsRowCount="1">
-  <autoFilter ref="A1:G9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:H10" totalsRowCount="1">
+  <autoFilter ref="A1:H9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{9054F665-F68F-4619-8BF9-CF17D0E63C21}" name="hero" totalsRowLabel="Harmonic Mean"/>
-    <tableColumn id="12" xr3:uid="{23B87AAC-11B7-428A-801F-4A46E206CA45}" name="13" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="5">
+    <tableColumn id="12" xr3:uid="{23B87AAC-11B7-428A-801F-4A46E206CA45}" name="13" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="9">
       <totalsRowFormula>HARMEAN(Table1[13])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{11D631BE-05C5-43E6-BF1A-6948CF622016}" name="14" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="4">
+    <tableColumn id="13" xr3:uid="{11D631BE-05C5-43E6-BF1A-6948CF622016}" name="14" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="8">
       <totalsRowFormula>HARMEAN(Table1[14])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2C1650F0-8EF0-4E80-8230-A8F4A1BFA032}" name="15" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="3">
+    <tableColumn id="14" xr3:uid="{2C1650F0-8EF0-4E80-8230-A8F4A1BFA032}" name="15" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="7">
       <totalsRowFormula>HARMEAN(Table1[15])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{7EF89940-2F64-484B-BE10-767C0421D185}" name="16" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="2">
+    <tableColumn id="15" xr3:uid="{7EF89940-2F64-484B-BE10-767C0421D185}" name="16" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="6">
       <totalsRowFormula>HARMEAN(Table1[16])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{9E3C59B0-6709-4251-972D-EAEB78EE2D39}" name="17" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="1">
+    <tableColumn id="16" xr3:uid="{9E3C59B0-6709-4251-972D-EAEB78EE2D39}" name="17" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="5">
       <totalsRowFormula>HARMEAN(Table1[17])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BD5D8554-7464-4C9C-99E9-84792904905B}" name="18" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="0">
-      <calculatedColumnFormula>[1]!HeroStatistics[[#This Row],[wins]]/[1]!HeroStatistics[[#This Row],[battles]]</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{BD5D8554-7464-4C9C-99E9-84792904905B}" name="18" totalsRowFunction="custom" dataDxfId="0" totalsRowDxfId="4">
       <totalsRowFormula>HARMEAN(Table1[18])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{5C39AC86-DDA7-4372-BB87-C3700EB137C8}" name="19" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="3">
+      <totalsRowFormula>HARMEAN(Table1[19])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2355,34 +2340,34 @@
   <autoFilter ref="A1:K9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{6701B958-D557-4A63-B324-DE3BF0569903}" name="hero" totalsRowLabel="Harmonic Mean"/>
-    <tableColumn id="2" xr3:uid="{0B915FFC-BE3D-4B9C-915B-B39062E0443A}" name="3" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="25">
+    <tableColumn id="2" xr3:uid="{0B915FFC-BE3D-4B9C-915B-B39062E0443A}" name="3" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
       <totalsRowFormula>HARMEAN(Table13[3])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C2436A7A-817C-4295-99FE-D9CF41244BCC}" name="4" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="23">
+    <tableColumn id="3" xr3:uid="{C2436A7A-817C-4295-99FE-D9CF41244BCC}" name="4" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
       <totalsRowFormula>HARMEAN(Table13[4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FB891A89-DA25-4151-B1EC-38AE54996BE0}" name="5" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="21">
+    <tableColumn id="4" xr3:uid="{FB891A89-DA25-4151-B1EC-38AE54996BE0}" name="5" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
       <totalsRowFormula>HARMEAN(Table13[5])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4B94954F-D922-40C9-A641-8BF8B51ADF79}" name="6" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="19">
+    <tableColumn id="5" xr3:uid="{4B94954F-D922-40C9-A641-8BF8B51ADF79}" name="6" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
       <totalsRowFormula>HARMEAN(Table13[6])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1E55BC43-7550-4217-95FF-BE48B312F2CE}" name="7" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="17">
+    <tableColumn id="6" xr3:uid="{1E55BC43-7550-4217-95FF-BE48B312F2CE}" name="7" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
       <totalsRowFormula>HARMEAN(Table13[7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{34255DB4-C675-4ED2-890E-A4845855326F}" name="8" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="15">
+    <tableColumn id="7" xr3:uid="{34255DB4-C675-4ED2-890E-A4845855326F}" name="8" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
       <totalsRowFormula>HARMEAN(Table13[8])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{87575DE7-4611-486F-935F-E5C2DC546BD7}" name="9" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="13">
+    <tableColumn id="8" xr3:uid="{87575DE7-4611-486F-935F-E5C2DC546BD7}" name="9" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
       <totalsRowFormula>HARMEAN(Table13[9])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{59990D58-FD7C-40E6-8A1A-2538EEF85B4E}" name="10" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="9" xr3:uid="{59990D58-FD7C-40E6-8A1A-2538EEF85B4E}" name="10" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
       <totalsRowFormula>HARMEAN(Table13[10])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5D234A32-4748-452C-B4A6-855513592E73}" name="11" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="9">
+    <tableColumn id="10" xr3:uid="{5D234A32-4748-452C-B4A6-855513592E73}" name="11" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
       <totalsRowFormula>HARMEAN(Table13[11])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{9B138BD6-395C-45AC-80DF-16AD7603C98E}" name="12" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="11" xr3:uid="{9B138BD6-395C-45AC-80DF-16AD7603C98E}" name="12" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
       <totalsRowFormula>HARMEAN(Table13[12])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2653,19 +2638,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2687,200 +2672,219 @@
       <c r="G1" t="s">
         <v>25</v>
       </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>0.5636363636363636</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0.4987012987012987</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>0.46616541353383456</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>0.47272727272727272</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0.47012987012987012</v>
       </c>
       <c r="G2" s="3">
-        <f>[1]!HeroStatistics[[#This Row],[wins]]/[1]!HeroStatistics[[#This Row],[battles]]</f>
         <v>0.48831168831168831</v>
       </c>
+      <c r="H2" s="2">
+        <v>0.48051948051948051</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>0.50389610389610384</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>0.45714285714285713</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>0.43609022556390975</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>0.43636363636363634</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>0.45974025974025973</v>
       </c>
       <c r="G3" s="3">
-        <f>[1]!HeroStatistics[[#This Row],[wins]]/[1]!HeroStatistics[[#This Row],[battles]]</f>
         <v>0.46493506493506492</v>
       </c>
+      <c r="H3" s="2">
+        <v>0.47272727272727272</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>0.30649350649350648</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>0.31948051948051948</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>0.39849624060150374</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>0.41558441558441561</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0.39220779220779223</v>
       </c>
       <c r="G4" s="3">
-        <f>[1]!HeroStatistics[[#This Row],[wins]]/[1]!HeroStatistics[[#This Row],[battles]]</f>
         <v>0.43896103896103894</v>
       </c>
+      <c r="H4" s="2">
+        <v>0.40519480519480522</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>0.45194805194805193</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>0.45974025974025973</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>0.45614035087719296</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>0.44675324675324674</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>0.39480519480519483</v>
       </c>
       <c r="G5" s="3">
-        <f>[1]!HeroStatistics[[#This Row],[wins]]/[1]!HeroStatistics[[#This Row],[battles]]</f>
         <v>0.47792207792207791</v>
       </c>
+      <c r="H5" s="2">
+        <v>0.47532467532467532</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>0.50129870129870124</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>0.55324675324675321</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>0.45112781954887216</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>0.41558441558441561</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0.51948051948051943</v>
       </c>
       <c r="G6" s="3">
-        <f>[1]!HeroStatistics[[#This Row],[wins]]/[1]!HeroStatistics[[#This Row],[battles]]</f>
         <v>0.46753246753246752</v>
       </c>
+      <c r="H6" s="2">
+        <v>0.48051948051948051</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>0.52727272727272723</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>0.5714285714285714</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>0.51378446115288223</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>0.48311688311688311</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0.52467532467532463</v>
       </c>
       <c r="G7" s="3">
-        <f>[1]!HeroStatistics[[#This Row],[wins]]/[1]!HeroStatistics[[#This Row],[battles]]</f>
         <v>0.47792207792207791</v>
       </c>
+      <c r="H7" s="2">
+        <v>0.47272727272727272</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>0.43896103896103894</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>0.34285714285714286</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0.49122807017543857</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>0.5688311688311688</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0.48831168831168831</v>
       </c>
       <c r="G8" s="3">
-        <f>[1]!HeroStatistics[[#This Row],[wins]]/[1]!HeroStatistics[[#This Row],[battles]]</f>
         <v>0.44675324675324674</v>
       </c>
+      <c r="H8" s="2">
+        <v>0.45194805194805193</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>0.45194805194805193</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>0.54285714285714282</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>0.54135338345864659</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>0.50649350649350644</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>0.4961038961038961</v>
       </c>
       <c r="G9" s="3">
-        <f>[1]!HeroStatistics[[#This Row],[wins]]/[1]!HeroStatistics[[#This Row],[battles]]</f>
         <v>0.48311688311688311</v>
       </c>
+      <c r="H9" s="2">
+        <v>0.50649350649350644</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2908,10 +2912,24 @@
         <f>HARMEAN(Table1[18])</f>
         <v>0.46759691053419777</v>
       </c>
+      <c r="H10" s="1">
+        <f>HARMEAN(Table1[19])</f>
+        <v>0.46642585371888184</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B2:B9">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C9">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2921,7 +2939,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C9">
+  <conditionalFormatting sqref="D2:D9">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2931,7 +2949,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D9">
+  <conditionalFormatting sqref="E2:E9">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2941,7 +2959,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E9">
+  <conditionalFormatting sqref="F2:F9">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2951,18 +2969,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F9">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:G10">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="B10:H10">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2972,7 +2980,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2981,8 +2989,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:G10">
-    <cfRule type="colorScale" priority="34">
+  <conditionalFormatting sqref="B10:H10">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2994,6 +3002,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G9">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/statistics-runs/balancing-progress.xlsx
+++ b/statistics-runs/balancing-progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\astaria-bot-backend\statistics-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE661F4-63FF-4D7E-94F1-13675BB01496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6195CCC3-8B23-4EED-AD26-CECE950D6506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>paragon</t>
   </si>
@@ -117,17 +117,28 @@
   <si>
     <t>19</t>
   </si>
+  <si>
+    <t>20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,16 +184,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="36">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -205,24 +241,10 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -480,9 +502,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>statistics!$B$1:$H$1</c:f>
+              <c:f>statistics!$B$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -504,15 +526,18 @@
                 <c:pt idx="6">
                   <c:v>19</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>statistics!$B$10:$H$10</c:f>
+              <c:f>statistics!$B$10:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.45412730296350989</c:v>
                 </c:pt>
@@ -533,6 +558,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.46642585371888184</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46631373554067856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2305,30 +2333,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:H10" totalsRowCount="1">
-  <autoFilter ref="A1:H9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:I10" totalsRowCount="1">
+  <autoFilter ref="A1:I9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{9054F665-F68F-4619-8BF9-CF17D0E63C21}" name="hero" totalsRowLabel="Harmonic Mean"/>
-    <tableColumn id="12" xr3:uid="{23B87AAC-11B7-428A-801F-4A46E206CA45}" name="13" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="9">
+    <tableColumn id="12" xr3:uid="{23B87AAC-11B7-428A-801F-4A46E206CA45}" name="13" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="7">
       <totalsRowFormula>HARMEAN(Table1[13])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{11D631BE-05C5-43E6-BF1A-6948CF622016}" name="14" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="8">
+    <tableColumn id="13" xr3:uid="{11D631BE-05C5-43E6-BF1A-6948CF622016}" name="14" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="6">
       <totalsRowFormula>HARMEAN(Table1[14])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2C1650F0-8EF0-4E80-8230-A8F4A1BFA032}" name="15" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="7">
+    <tableColumn id="14" xr3:uid="{2C1650F0-8EF0-4E80-8230-A8F4A1BFA032}" name="15" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="5">
       <totalsRowFormula>HARMEAN(Table1[15])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{7EF89940-2F64-484B-BE10-767C0421D185}" name="16" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="6">
+    <tableColumn id="15" xr3:uid="{7EF89940-2F64-484B-BE10-767C0421D185}" name="16" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="4">
       <totalsRowFormula>HARMEAN(Table1[16])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{9E3C59B0-6709-4251-972D-EAEB78EE2D39}" name="17" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="5">
+    <tableColumn id="16" xr3:uid="{9E3C59B0-6709-4251-972D-EAEB78EE2D39}" name="17" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="3">
       <totalsRowFormula>HARMEAN(Table1[17])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BD5D8554-7464-4C9C-99E9-84792904905B}" name="18" totalsRowFunction="custom" dataDxfId="0" totalsRowDxfId="4">
+    <tableColumn id="2" xr3:uid="{BD5D8554-7464-4C9C-99E9-84792904905B}" name="18" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="2">
       <totalsRowFormula>HARMEAN(Table1[18])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5C39AC86-DDA7-4372-BB87-C3700EB137C8}" name="19" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="3">
+    <tableColumn id="3" xr3:uid="{5C39AC86-DDA7-4372-BB87-C3700EB137C8}" name="19" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="1">
       <totalsRowFormula>HARMEAN(Table1[19])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{27A3584B-B58D-4164-9673-E2EC9C30A996}" name="20" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="0">
+      <totalsRowFormula>HARMEAN(Table1[20])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2340,34 +2371,34 @@
   <autoFilter ref="A1:K9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{6701B958-D557-4A63-B324-DE3BF0569903}" name="hero" totalsRowLabel="Harmonic Mean"/>
-    <tableColumn id="2" xr3:uid="{0B915FFC-BE3D-4B9C-915B-B39062E0443A}" name="3" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="2" xr3:uid="{0B915FFC-BE3D-4B9C-915B-B39062E0443A}" name="3" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
       <totalsRowFormula>HARMEAN(Table13[3])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C2436A7A-817C-4295-99FE-D9CF41244BCC}" name="4" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="3" xr3:uid="{C2436A7A-817C-4295-99FE-D9CF41244BCC}" name="4" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
       <totalsRowFormula>HARMEAN(Table13[4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FB891A89-DA25-4151-B1EC-38AE54996BE0}" name="5" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="4" xr3:uid="{FB891A89-DA25-4151-B1EC-38AE54996BE0}" name="5" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
       <totalsRowFormula>HARMEAN(Table13[5])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4B94954F-D922-40C9-A641-8BF8B51ADF79}" name="6" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="5" xr3:uid="{4B94954F-D922-40C9-A641-8BF8B51ADF79}" name="6" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
       <totalsRowFormula>HARMEAN(Table13[6])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1E55BC43-7550-4217-95FF-BE48B312F2CE}" name="7" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="6" xr3:uid="{1E55BC43-7550-4217-95FF-BE48B312F2CE}" name="7" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
       <totalsRowFormula>HARMEAN(Table13[7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{34255DB4-C675-4ED2-890E-A4845855326F}" name="8" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="7" xr3:uid="{34255DB4-C675-4ED2-890E-A4845855326F}" name="8" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
       <totalsRowFormula>HARMEAN(Table13[8])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{87575DE7-4611-486F-935F-E5C2DC546BD7}" name="9" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="8" xr3:uid="{87575DE7-4611-486F-935F-E5C2DC546BD7}" name="9" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
       <totalsRowFormula>HARMEAN(Table13[9])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{59990D58-FD7C-40E6-8A1A-2538EEF85B4E}" name="10" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="9" xr3:uid="{59990D58-FD7C-40E6-8A1A-2538EEF85B4E}" name="10" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
       <totalsRowFormula>HARMEAN(Table13[10])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5D234A32-4748-452C-B4A6-855513592E73}" name="11" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="10" xr3:uid="{5D234A32-4748-452C-B4A6-855513592E73}" name="11" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
       <totalsRowFormula>HARMEAN(Table13[11])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{9B138BD6-395C-45AC-80DF-16AD7603C98E}" name="12" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="11" xr3:uid="{9B138BD6-395C-45AC-80DF-16AD7603C98E}" name="12" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
       <totalsRowFormula>HARMEAN(Table13[12])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2638,19 +2669,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2675,8 +2706,11 @@
       <c r="H1" t="s">
         <v>26</v>
       </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2701,8 +2735,11 @@
       <c r="H2" s="2">
         <v>0.48051948051948051</v>
       </c>
+      <c r="I2" s="4">
+        <v>0.47532467532467532</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2727,8 +2764,11 @@
       <c r="H3" s="2">
         <v>0.47272727272727272</v>
       </c>
+      <c r="I3" s="4">
+        <v>0.47012987012987012</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2753,8 +2793,11 @@
       <c r="H4" s="2">
         <v>0.40519480519480522</v>
       </c>
+      <c r="I4" s="4">
+        <v>0.40259740259740262</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2779,8 +2822,11 @@
       <c r="H5" s="2">
         <v>0.47532467532467532</v>
       </c>
+      <c r="I5" s="4">
+        <v>0.50649350649350644</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2805,8 +2851,11 @@
       <c r="H6" s="2">
         <v>0.48051948051948051</v>
       </c>
+      <c r="I6" s="4">
+        <v>0.46233766233766233</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2831,8 +2880,11 @@
       <c r="H7" s="2">
         <v>0.47272727272727272</v>
       </c>
+      <c r="I7" s="4">
+        <v>0.49090909090909091</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2857,8 +2909,11 @@
       <c r="H8" s="2">
         <v>0.45194805194805193</v>
       </c>
+      <c r="I8" s="4">
+        <v>0.47532467532467532</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2883,8 +2938,11 @@
       <c r="H9" s="2">
         <v>0.50649350649350644</v>
       </c>
+      <c r="I9" s="4">
+        <v>0.46233766233766233</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2916,10 +2974,24 @@
         <f>HARMEAN(Table1[19])</f>
         <v>0.46642585371888184</v>
       </c>
+      <c r="I10" s="1">
+        <f>HARMEAN(Table1[20])</f>
+        <v>0.46631373554067856</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B2:B9">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C9">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2929,7 +3001,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C9">
+  <conditionalFormatting sqref="D2:D9">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2939,7 +3011,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D9">
+  <conditionalFormatting sqref="E2:E9">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2949,7 +3021,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E9">
+  <conditionalFormatting sqref="F2:F9">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2959,18 +3031,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F9">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:H10">
-    <cfRule type="colorScale" priority="33">
+  <conditionalFormatting sqref="B10:I10">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2980,7 +3042,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2989,8 +3051,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:H10">
-    <cfRule type="colorScale" priority="35">
+  <conditionalFormatting sqref="B10:I10">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3002,6 +3064,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3011,7 +3083,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H9">
+  <conditionalFormatting sqref="I2:I9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/statistics-runs/balancing-progress.xlsx
+++ b/statistics-runs/balancing-progress.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\astaria-bot-backend\statistics-runs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\astaria-bot-backend\statistics-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6195CCC3-8B23-4EED-AD26-CECE950D6506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B543252A-F5D5-4268-B5D1-4634BC251466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>paragon</t>
   </si>
@@ -120,17 +120,28 @@
   <si>
     <t>20</t>
   </si>
+  <si>
+    <t>21</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,9 +195,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -194,7 +206,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="38">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -217,6 +229,16 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -502,9 +524,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>statistics!$B$1:$I$1</c:f>
+              <c:f>statistics!$B$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -529,15 +551,18 @@
                 <c:pt idx="7">
                   <c:v>20</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>statistics!$B$10:$I$10</c:f>
+              <c:f>statistics!$B$10:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.45412730296350989</c:v>
                 </c:pt>
@@ -561,6 +586,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.46631373554067856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46641169600804921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2333,33 +2361,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:I10" totalsRowCount="1">
-  <autoFilter ref="A1:I9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:J10" totalsRowCount="1">
+  <autoFilter ref="A1:J9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{9054F665-F68F-4619-8BF9-CF17D0E63C21}" name="hero" totalsRowLabel="Harmonic Mean"/>
-    <tableColumn id="12" xr3:uid="{23B87AAC-11B7-428A-801F-4A46E206CA45}" name="13" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="7">
+    <tableColumn id="12" xr3:uid="{23B87AAC-11B7-428A-801F-4A46E206CA45}" name="13" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="8">
       <totalsRowFormula>HARMEAN(Table1[13])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{11D631BE-05C5-43E6-BF1A-6948CF622016}" name="14" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="6">
+    <tableColumn id="13" xr3:uid="{11D631BE-05C5-43E6-BF1A-6948CF622016}" name="14" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="7">
       <totalsRowFormula>HARMEAN(Table1[14])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2C1650F0-8EF0-4E80-8230-A8F4A1BFA032}" name="15" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="5">
+    <tableColumn id="14" xr3:uid="{2C1650F0-8EF0-4E80-8230-A8F4A1BFA032}" name="15" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="6">
       <totalsRowFormula>HARMEAN(Table1[15])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{7EF89940-2F64-484B-BE10-767C0421D185}" name="16" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="4">
+    <tableColumn id="15" xr3:uid="{7EF89940-2F64-484B-BE10-767C0421D185}" name="16" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="5">
       <totalsRowFormula>HARMEAN(Table1[16])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{9E3C59B0-6709-4251-972D-EAEB78EE2D39}" name="17" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="3">
+    <tableColumn id="16" xr3:uid="{9E3C59B0-6709-4251-972D-EAEB78EE2D39}" name="17" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="4">
       <totalsRowFormula>HARMEAN(Table1[17])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BD5D8554-7464-4C9C-99E9-84792904905B}" name="18" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="2">
+    <tableColumn id="2" xr3:uid="{BD5D8554-7464-4C9C-99E9-84792904905B}" name="18" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="3">
       <totalsRowFormula>HARMEAN(Table1[18])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5C39AC86-DDA7-4372-BB87-C3700EB137C8}" name="19" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="1">
+    <tableColumn id="3" xr3:uid="{5C39AC86-DDA7-4372-BB87-C3700EB137C8}" name="19" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="2">
       <totalsRowFormula>HARMEAN(Table1[19])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{27A3584B-B58D-4164-9673-E2EC9C30A996}" name="20" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="0">
+    <tableColumn id="4" xr3:uid="{27A3584B-B58D-4164-9673-E2EC9C30A996}" name="20" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="1">
       <totalsRowFormula>HARMEAN(Table1[20])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{3C53064C-FE32-4A35-9F10-13B56DC995DE}" name="21" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="0">
+      <totalsRowFormula>HARMEAN(Table1[21])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2371,34 +2402,34 @@
   <autoFilter ref="A1:K9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{6701B958-D557-4A63-B324-DE3BF0569903}" name="hero" totalsRowLabel="Harmonic Mean"/>
-    <tableColumn id="2" xr3:uid="{0B915FFC-BE3D-4B9C-915B-B39062E0443A}" name="3" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="2" xr3:uid="{0B915FFC-BE3D-4B9C-915B-B39062E0443A}" name="3" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
       <totalsRowFormula>HARMEAN(Table13[3])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C2436A7A-817C-4295-99FE-D9CF41244BCC}" name="4" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="3" xr3:uid="{C2436A7A-817C-4295-99FE-D9CF41244BCC}" name="4" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
       <totalsRowFormula>HARMEAN(Table13[4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FB891A89-DA25-4151-B1EC-38AE54996BE0}" name="5" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="4" xr3:uid="{FB891A89-DA25-4151-B1EC-38AE54996BE0}" name="5" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
       <totalsRowFormula>HARMEAN(Table13[5])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4B94954F-D922-40C9-A641-8BF8B51ADF79}" name="6" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="5" xr3:uid="{4B94954F-D922-40C9-A641-8BF8B51ADF79}" name="6" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
       <totalsRowFormula>HARMEAN(Table13[6])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1E55BC43-7550-4217-95FF-BE48B312F2CE}" name="7" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="6" xr3:uid="{1E55BC43-7550-4217-95FF-BE48B312F2CE}" name="7" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
       <totalsRowFormula>HARMEAN(Table13[7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{34255DB4-C675-4ED2-890E-A4845855326F}" name="8" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="7" xr3:uid="{34255DB4-C675-4ED2-890E-A4845855326F}" name="8" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
       <totalsRowFormula>HARMEAN(Table13[8])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{87575DE7-4611-486F-935F-E5C2DC546BD7}" name="9" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="8" xr3:uid="{87575DE7-4611-486F-935F-E5C2DC546BD7}" name="9" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
       <totalsRowFormula>HARMEAN(Table13[9])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{59990D58-FD7C-40E6-8A1A-2538EEF85B4E}" name="10" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="9" xr3:uid="{59990D58-FD7C-40E6-8A1A-2538EEF85B4E}" name="10" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
       <totalsRowFormula>HARMEAN(Table13[10])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5D234A32-4748-452C-B4A6-855513592E73}" name="11" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="10" xr3:uid="{5D234A32-4748-452C-B4A6-855513592E73}" name="11" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
       <totalsRowFormula>HARMEAN(Table13[11])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{9B138BD6-395C-45AC-80DF-16AD7603C98E}" name="12" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="11" xr3:uid="{9B138BD6-395C-45AC-80DF-16AD7603C98E}" name="12" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
       <totalsRowFormula>HARMEAN(Table13[12])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2669,19 +2700,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2709,8 +2740,11 @@
       <c r="I1" t="s">
         <v>27</v>
       </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2738,8 +2772,11 @@
       <c r="I2" s="4">
         <v>0.47532467532467532</v>
       </c>
+      <c r="J2" s="5">
+        <v>0.46493506493506492</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2767,8 +2804,11 @@
       <c r="I3" s="4">
         <v>0.47012987012987012</v>
       </c>
+      <c r="J3" s="5">
+        <v>0.48311688311688311</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2796,8 +2836,11 @@
       <c r="I4" s="4">
         <v>0.40259740259740262</v>
       </c>
+      <c r="J4" s="5">
+        <v>0.41298701298701301</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2825,8 +2868,11 @@
       <c r="I5" s="4">
         <v>0.50649350649350644</v>
       </c>
+      <c r="J5" s="5">
+        <v>0.50649350649350644</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2854,8 +2900,11 @@
       <c r="I6" s="4">
         <v>0.46233766233766233</v>
       </c>
+      <c r="J6" s="5">
+        <v>0.43636363636363634</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2883,8 +2932,11 @@
       <c r="I7" s="4">
         <v>0.49090909090909091</v>
       </c>
+      <c r="J7" s="5">
+        <v>0.47532467532467532</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2912,8 +2964,11 @@
       <c r="I8" s="4">
         <v>0.47532467532467532</v>
       </c>
+      <c r="J8" s="5">
+        <v>0.48831168831168831</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2941,8 +2996,11 @@
       <c r="I9" s="4">
         <v>0.46233766233766233</v>
       </c>
+      <c r="J9" s="5">
+        <v>0.47792207792207791</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2978,10 +3036,44 @@
         <f>HARMEAN(Table1[20])</f>
         <v>0.46631373554067856</v>
       </c>
+      <c r="J10" s="1">
+        <f>HARMEAN(Table1[21])</f>
+        <v>0.46641169600804921</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B2:B9">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C9">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D9">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E9">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2991,7 +3083,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C9">
+  <conditionalFormatting sqref="F2:F9">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3001,38 +3093,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D9">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E9">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F9">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:I10">
-    <cfRule type="colorScale" priority="34">
+  <conditionalFormatting sqref="B10:J10">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3042,7 +3104,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3051,8 +3113,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:I10">
-    <cfRule type="colorScale" priority="36">
+  <conditionalFormatting sqref="B10:J10">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3064,7 +3126,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G9">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3074,7 +3136,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H9">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3084,7 +3146,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I9">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/statistics-runs/balancing-progress.xlsx
+++ b/statistics-runs/balancing-progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\astaria-bot-backend\statistics-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B543252A-F5D5-4268-B5D1-4634BC251466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D90059-3C96-4649-B755-2344CECAB0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>paragon</t>
   </si>
@@ -123,17 +123,28 @@
   <si>
     <t>21</t>
   </si>
+  <si>
+    <t>22</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,9 +206,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -206,32 +218,42 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
+  <dxfs count="40">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -524,9 +546,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>statistics!$B$1:$J$1</c:f>
+              <c:f>statistics!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -553,16 +575,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>statistics!$B$10:$J$10</c:f>
+              <c:f>statistics!$B$10:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.45412730296350989</c:v>
                 </c:pt>
@@ -589,6 +614,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.46641169600804921</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46496830646001963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2286,8 +2314,8 @@
       <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -2361,36 +2389,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:J10" totalsRowCount="1">
-  <autoFilter ref="A1:J9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:K10" totalsRowCount="1">
+  <autoFilter ref="A1:K9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{9054F665-F68F-4619-8BF9-CF17D0E63C21}" name="hero" totalsRowLabel="Harmonic Mean"/>
-    <tableColumn id="12" xr3:uid="{23B87AAC-11B7-428A-801F-4A46E206CA45}" name="13" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="8">
+    <tableColumn id="12" xr3:uid="{23B87AAC-11B7-428A-801F-4A46E206CA45}" name="13" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="9">
       <totalsRowFormula>HARMEAN(Table1[13])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{11D631BE-05C5-43E6-BF1A-6948CF622016}" name="14" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="7">
+    <tableColumn id="13" xr3:uid="{11D631BE-05C5-43E6-BF1A-6948CF622016}" name="14" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="8">
       <totalsRowFormula>HARMEAN(Table1[14])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2C1650F0-8EF0-4E80-8230-A8F4A1BFA032}" name="15" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="6">
+    <tableColumn id="14" xr3:uid="{2C1650F0-8EF0-4E80-8230-A8F4A1BFA032}" name="15" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="7">
       <totalsRowFormula>HARMEAN(Table1[15])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{7EF89940-2F64-484B-BE10-767C0421D185}" name="16" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="5">
+    <tableColumn id="15" xr3:uid="{7EF89940-2F64-484B-BE10-767C0421D185}" name="16" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="6">
       <totalsRowFormula>HARMEAN(Table1[16])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{9E3C59B0-6709-4251-972D-EAEB78EE2D39}" name="17" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="4">
+    <tableColumn id="16" xr3:uid="{9E3C59B0-6709-4251-972D-EAEB78EE2D39}" name="17" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="5">
       <totalsRowFormula>HARMEAN(Table1[17])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BD5D8554-7464-4C9C-99E9-84792904905B}" name="18" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="3">
+    <tableColumn id="2" xr3:uid="{BD5D8554-7464-4C9C-99E9-84792904905B}" name="18" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="4">
       <totalsRowFormula>HARMEAN(Table1[18])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5C39AC86-DDA7-4372-BB87-C3700EB137C8}" name="19" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="2">
+    <tableColumn id="3" xr3:uid="{5C39AC86-DDA7-4372-BB87-C3700EB137C8}" name="19" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="3">
       <totalsRowFormula>HARMEAN(Table1[19])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{27A3584B-B58D-4164-9673-E2EC9C30A996}" name="20" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="1">
+    <tableColumn id="4" xr3:uid="{27A3584B-B58D-4164-9673-E2EC9C30A996}" name="20" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="2">
       <totalsRowFormula>HARMEAN(Table1[20])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3C53064C-FE32-4A35-9F10-13B56DC995DE}" name="21" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="0">
+    <tableColumn id="5" xr3:uid="{3C53064C-FE32-4A35-9F10-13B56DC995DE}" name="21" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="1">
       <totalsRowFormula>HARMEAN(Table1[21])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{9F62685B-3D7B-401B-8E86-8DE3F41D5C7D}" name="22" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="0">
+      <totalsRowFormula>HARMEAN(Table1[22])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2402,34 +2433,34 @@
   <autoFilter ref="A1:K9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{6701B958-D557-4A63-B324-DE3BF0569903}" name="hero" totalsRowLabel="Harmonic Mean"/>
-    <tableColumn id="2" xr3:uid="{0B915FFC-BE3D-4B9C-915B-B39062E0443A}" name="3" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="2" xr3:uid="{0B915FFC-BE3D-4B9C-915B-B39062E0443A}" name="3" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
       <totalsRowFormula>HARMEAN(Table13[3])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C2436A7A-817C-4295-99FE-D9CF41244BCC}" name="4" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="3" xr3:uid="{C2436A7A-817C-4295-99FE-D9CF41244BCC}" name="4" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
       <totalsRowFormula>HARMEAN(Table13[4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FB891A89-DA25-4151-B1EC-38AE54996BE0}" name="5" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="4" xr3:uid="{FB891A89-DA25-4151-B1EC-38AE54996BE0}" name="5" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
       <totalsRowFormula>HARMEAN(Table13[5])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4B94954F-D922-40C9-A641-8BF8B51ADF79}" name="6" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="5" xr3:uid="{4B94954F-D922-40C9-A641-8BF8B51ADF79}" name="6" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
       <totalsRowFormula>HARMEAN(Table13[6])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1E55BC43-7550-4217-95FF-BE48B312F2CE}" name="7" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="6" xr3:uid="{1E55BC43-7550-4217-95FF-BE48B312F2CE}" name="7" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
       <totalsRowFormula>HARMEAN(Table13[7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{34255DB4-C675-4ED2-890E-A4845855326F}" name="8" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="7" xr3:uid="{34255DB4-C675-4ED2-890E-A4845855326F}" name="8" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
       <totalsRowFormula>HARMEAN(Table13[8])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{87575DE7-4611-486F-935F-E5C2DC546BD7}" name="9" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="8" xr3:uid="{87575DE7-4611-486F-935F-E5C2DC546BD7}" name="9" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
       <totalsRowFormula>HARMEAN(Table13[9])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{59990D58-FD7C-40E6-8A1A-2538EEF85B4E}" name="10" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="9" xr3:uid="{59990D58-FD7C-40E6-8A1A-2538EEF85B4E}" name="10" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
       <totalsRowFormula>HARMEAN(Table13[10])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5D234A32-4748-452C-B4A6-855513592E73}" name="11" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="10" xr3:uid="{5D234A32-4748-452C-B4A6-855513592E73}" name="11" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
       <totalsRowFormula>HARMEAN(Table13[11])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{9B138BD6-395C-45AC-80DF-16AD7603C98E}" name="12" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="11" xr3:uid="{9B138BD6-395C-45AC-80DF-16AD7603C98E}" name="12" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
       <totalsRowFormula>HARMEAN(Table13[12])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2700,19 +2731,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2743,8 +2774,11 @@
       <c r="J1" t="s">
         <v>28</v>
       </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2775,8 +2809,11 @@
       <c r="J2" s="5">
         <v>0.46493506493506492</v>
       </c>
+      <c r="K2" s="6">
+        <v>0.45714285714285713</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2807,8 +2844,11 @@
       <c r="J3" s="5">
         <v>0.48311688311688311</v>
       </c>
+      <c r="K3" s="6">
+        <v>0.41818181818181815</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2839,8 +2879,11 @@
       <c r="J4" s="5">
         <v>0.41298701298701301</v>
       </c>
+      <c r="K4" s="6">
+        <v>0.51948051948051943</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2871,8 +2914,11 @@
       <c r="J5" s="5">
         <v>0.50649350649350644</v>
       </c>
+      <c r="K5" s="6">
+        <v>0.52467532467532463</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2903,8 +2949,11 @@
       <c r="J6" s="5">
         <v>0.43636363636363634</v>
       </c>
+      <c r="K6" s="6">
+        <v>0.43376623376623374</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2935,8 +2984,11 @@
       <c r="J7" s="5">
         <v>0.47532467532467532</v>
       </c>
+      <c r="K7" s="6">
+        <v>0.47012987012987012</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2967,8 +3019,11 @@
       <c r="J8" s="5">
         <v>0.48831168831168831</v>
       </c>
+      <c r="K8" s="6">
+        <v>0.4961038961038961</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2999,8 +3054,11 @@
       <c r="J9" s="5">
         <v>0.47792207792207791</v>
       </c>
+      <c r="K9" s="6">
+        <v>0.42597402597402595</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3040,10 +3098,24 @@
         <f>HARMEAN(Table1[21])</f>
         <v>0.46641169600804921</v>
       </c>
+      <c r="K10" s="1">
+        <f>HARMEAN(Table1[22])</f>
+        <v>0.46496830646001963</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B2:B9">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C9">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -3053,7 +3125,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C9">
+  <conditionalFormatting sqref="D2:D9">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -3063,7 +3135,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D9">
+  <conditionalFormatting sqref="E2:E9">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3073,7 +3145,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E9">
+  <conditionalFormatting sqref="F2:F9">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3083,18 +3155,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F9">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:J10">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="B10:K10">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3104,7 +3166,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3113,8 +3175,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:J10">
-    <cfRule type="colorScale" priority="39">
+  <conditionalFormatting sqref="B10:K10">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3126,6 +3188,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G9">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H9">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3135,7 +3207,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H9">
+  <conditionalFormatting sqref="I2:I9">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3145,18 +3217,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I9">
+  <conditionalFormatting sqref="J2:J9">
     <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J9">
-    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3166,7 +3228,17 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K9">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/statistics-runs/balancing-progress.xlsx
+++ b/statistics-runs/balancing-progress.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\astaria-bot-backend\statistics-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D90059-3C96-4649-B755-2344CECAB0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A913396-6F84-43E8-8FE8-4C88368E5BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistics" sheetId="1" r:id="rId1"/>
-    <sheet name="old" sheetId="2" r:id="rId2"/>
+    <sheet name="statistics-x" sheetId="3" r:id="rId2"/>
+    <sheet name="old" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>paragon</t>
   </si>
@@ -126,17 +127,31 @@
   <si>
     <t>22</t>
   </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>navarch</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,9 +221,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -218,98 +234,8 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="44">
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <charset val="204"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <charset val="204"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <charset val="204"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <charset val="204"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <charset val="204"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <charset val="204"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <charset val="204"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <charset val="204"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <charset val="204"/>
-      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -377,6 +303,116 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
   </dxfs>
@@ -546,9 +582,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>statistics!$B$1:$K$1</c:f>
+              <c:f>statistics!$B$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -579,15 +615,18 @@
                 <c:pt idx="9">
                   <c:v>22</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>statistics!$B$10:$K$10</c:f>
+              <c:f>statistics!$B$10:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.45412730296350989</c:v>
                 </c:pt>
@@ -617,6 +656,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.46496830646001963</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46517708788219897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -793,6 +835,352 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Harmonic Mean Statistics</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> for Heroes  (46,91% - optimal)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'statistics-x'!$B$1:$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'statistics-x'!$B$11:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.45908644262740039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D197-46F2-8E4F-6123EE2D6F7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="565676336"/>
+        <c:axId val="565677584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="565676336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="565677584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="565677584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="565676336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1272,6 +1660,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1789,6 +2217,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2351,6 +3295,49 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAE2E67-A690-4724-A7D4-AC3265E1CD15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
@@ -2389,39 +3376,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:K10" totalsRowCount="1">
-  <autoFilter ref="A1:K9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:L10" totalsRowCount="1">
+  <autoFilter ref="A1:L9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{9054F665-F68F-4619-8BF9-CF17D0E63C21}" name="hero" totalsRowLabel="Harmonic Mean"/>
-    <tableColumn id="12" xr3:uid="{23B87AAC-11B7-428A-801F-4A46E206CA45}" name="13" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="9">
+    <tableColumn id="12" xr3:uid="{23B87AAC-11B7-428A-801F-4A46E206CA45}" name="13" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="42">
       <totalsRowFormula>HARMEAN(Table1[13])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{11D631BE-05C5-43E6-BF1A-6948CF622016}" name="14" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="8">
+    <tableColumn id="13" xr3:uid="{11D631BE-05C5-43E6-BF1A-6948CF622016}" name="14" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
       <totalsRowFormula>HARMEAN(Table1[14])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2C1650F0-8EF0-4E80-8230-A8F4A1BFA032}" name="15" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="7">
+    <tableColumn id="14" xr3:uid="{2C1650F0-8EF0-4E80-8230-A8F4A1BFA032}" name="15" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
       <totalsRowFormula>HARMEAN(Table1[15])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{7EF89940-2F64-484B-BE10-767C0421D185}" name="16" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="6">
+    <tableColumn id="15" xr3:uid="{7EF89940-2F64-484B-BE10-767C0421D185}" name="16" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
       <totalsRowFormula>HARMEAN(Table1[16])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{9E3C59B0-6709-4251-972D-EAEB78EE2D39}" name="17" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="5">
+    <tableColumn id="16" xr3:uid="{9E3C59B0-6709-4251-972D-EAEB78EE2D39}" name="17" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
       <totalsRowFormula>HARMEAN(Table1[17])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BD5D8554-7464-4C9C-99E9-84792904905B}" name="18" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="4">
+    <tableColumn id="2" xr3:uid="{BD5D8554-7464-4C9C-99E9-84792904905B}" name="18" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
       <totalsRowFormula>HARMEAN(Table1[18])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5C39AC86-DDA7-4372-BB87-C3700EB137C8}" name="19" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="3">
+    <tableColumn id="3" xr3:uid="{5C39AC86-DDA7-4372-BB87-C3700EB137C8}" name="19" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
       <totalsRowFormula>HARMEAN(Table1[19])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{27A3584B-B58D-4164-9673-E2EC9C30A996}" name="20" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="2">
+    <tableColumn id="4" xr3:uid="{27A3584B-B58D-4164-9673-E2EC9C30A996}" name="20" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
       <totalsRowFormula>HARMEAN(Table1[20])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3C53064C-FE32-4A35-9F10-13B56DC995DE}" name="21" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="1">
+    <tableColumn id="5" xr3:uid="{3C53064C-FE32-4A35-9F10-13B56DC995DE}" name="21" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
       <totalsRowFormula>HARMEAN(Table1[21])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9F62685B-3D7B-401B-8E86-8DE3F41D5C7D}" name="22" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="0">
+    <tableColumn id="6" xr3:uid="{9F62685B-3D7B-401B-8E86-8DE3F41D5C7D}" name="22" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
       <totalsRowFormula>HARMEAN(Table1[22])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{59A96990-8AD9-4B3B-94BA-92CAC52CC7A7}" name="23" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
+      <totalsRowFormula>HARMEAN(Table1[23])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2429,38 +3419,51 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C6EC39EE-BD9E-4B2A-96F3-2A43AFA1C680}" name="Table14" displayName="Table14" ref="A1:B11" totalsRowCount="1">
+  <autoFilter ref="A1:B10" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{96A8289A-B86D-45AD-BB48-5D6988FD6594}" name="hero" totalsRowLabel="Harmonic Mean"/>
+    <tableColumn id="12" xr3:uid="{5B1A31F7-ECB4-47B3-88C1-589506A526AC}" name="23" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+      <totalsRowFormula>HARMEAN(Table14[23])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FACA4A67-F358-4E61-843A-A94ABE036E5E}" name="Table13" displayName="Table13" ref="A1:K10" totalsRowCount="1">
   <autoFilter ref="A1:K9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{6701B958-D557-4A63-B324-DE3BF0569903}" name="hero" totalsRowLabel="Harmonic Mean"/>
-    <tableColumn id="2" xr3:uid="{0B915FFC-BE3D-4B9C-915B-B39062E0443A}" name="3" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
+    <tableColumn id="2" xr3:uid="{0B915FFC-BE3D-4B9C-915B-B39062E0443A}" name="3" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
       <totalsRowFormula>HARMEAN(Table13[3])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C2436A7A-817C-4295-99FE-D9CF41244BCC}" name="4" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="3" xr3:uid="{C2436A7A-817C-4295-99FE-D9CF41244BCC}" name="4" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
       <totalsRowFormula>HARMEAN(Table13[4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FB891A89-DA25-4151-B1EC-38AE54996BE0}" name="5" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="4" xr3:uid="{FB891A89-DA25-4151-B1EC-38AE54996BE0}" name="5" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
       <totalsRowFormula>HARMEAN(Table13[5])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4B94954F-D922-40C9-A641-8BF8B51ADF79}" name="6" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="5" xr3:uid="{4B94954F-D922-40C9-A641-8BF8B51ADF79}" name="6" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
       <totalsRowFormula>HARMEAN(Table13[6])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1E55BC43-7550-4217-95FF-BE48B312F2CE}" name="7" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="6" xr3:uid="{1E55BC43-7550-4217-95FF-BE48B312F2CE}" name="7" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
       <totalsRowFormula>HARMEAN(Table13[7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{34255DB4-C675-4ED2-890E-A4845855326F}" name="8" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="7" xr3:uid="{34255DB4-C675-4ED2-890E-A4845855326F}" name="8" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
       <totalsRowFormula>HARMEAN(Table13[8])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{87575DE7-4611-486F-935F-E5C2DC546BD7}" name="9" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="8" xr3:uid="{87575DE7-4611-486F-935F-E5C2DC546BD7}" name="9" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
       <totalsRowFormula>HARMEAN(Table13[9])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{59990D58-FD7C-40E6-8A1A-2538EEF85B4E}" name="10" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="9" xr3:uid="{59990D58-FD7C-40E6-8A1A-2538EEF85B4E}" name="10" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
       <totalsRowFormula>HARMEAN(Table13[10])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5D234A32-4748-452C-B4A6-855513592E73}" name="11" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="10" xr3:uid="{5D234A32-4748-452C-B4A6-855513592E73}" name="11" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>HARMEAN(Table13[11])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{9B138BD6-395C-45AC-80DF-16AD7603C98E}" name="12" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="11" xr3:uid="{9B138BD6-395C-45AC-80DF-16AD7603C98E}" name="12" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>HARMEAN(Table13[12])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2731,19 +3734,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2777,8 +3780,11 @@
       <c r="K1" t="s">
         <v>29</v>
       </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2812,8 +3818,11 @@
       <c r="K2" s="6">
         <v>0.45714285714285713</v>
       </c>
+      <c r="L2" s="7">
+        <v>0.50389610389610384</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2847,8 +3856,11 @@
       <c r="K3" s="6">
         <v>0.41818181818181815</v>
       </c>
+      <c r="L3" s="7">
+        <v>0.42337662337662335</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2882,8 +3894,11 @@
       <c r="K4" s="6">
         <v>0.51948051948051943</v>
       </c>
+      <c r="L4" s="7">
+        <v>0.4935064935064935</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2917,8 +3932,11 @@
       <c r="K5" s="6">
         <v>0.52467532467532463</v>
       </c>
+      <c r="L5" s="7">
+        <v>0.50649350649350644</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2952,8 +3970,11 @@
       <c r="K6" s="6">
         <v>0.43376623376623374</v>
       </c>
+      <c r="L6" s="7">
+        <v>0.41298701298701301</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2987,8 +4008,11 @@
       <c r="K7" s="6">
         <v>0.47012987012987012</v>
       </c>
+      <c r="L7" s="7">
+        <v>0.48571428571428571</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3022,8 +4046,11 @@
       <c r="K8" s="6">
         <v>0.4961038961038961</v>
       </c>
+      <c r="L8" s="7">
+        <v>0.42857142857142855</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3057,8 +4084,11 @@
       <c r="K9" s="6">
         <v>0.42597402597402595</v>
       </c>
+      <c r="L9" s="7">
+        <v>0.49090909090909091</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3102,10 +4132,24 @@
         <f>HARMEAN(Table1[22])</f>
         <v>0.46496830646001963</v>
       </c>
+      <c r="L10" s="1">
+        <f>HARMEAN(Table1[23])</f>
+        <v>0.46517708788219897</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B2:B9">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C9">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3115,7 +4159,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C9">
+  <conditionalFormatting sqref="D2:D9">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -3125,7 +4169,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D9">
+  <conditionalFormatting sqref="E2:E9">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -3135,7 +4179,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E9">
+  <conditionalFormatting sqref="F2:F9">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3145,18 +4189,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F9">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:K10">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="B10:L10">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3166,7 +4200,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3175,8 +4209,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:K10">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="B10:L10">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3188,6 +4222,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G9">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H9">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3197,18 +4241,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H9">
+  <conditionalFormatting sqref="I2:I9">
     <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I9">
-    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3221,6 +4255,14 @@
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
@@ -3228,7 +4270,9 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K9">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3237,7 +4281,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K9">
+  <conditionalFormatting sqref="L2:L9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3257,6 +4301,161 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1433F3-E107-4BA6-A0F1-01D318623B78}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.47682119205298013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.45198675496688739</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.52814569536423839</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.53476821192052981</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.42880794701986757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.48675496688741721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.43377483443708609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.54966887417218546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.33112582781456956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <f>HARMEAN(Table14[23])</f>
+        <v>0.45908644262740039</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B10">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38254C8F-A721-429C-A613-B8589ADDA93E}">
   <dimension ref="A1:K10"/>
   <sheetViews>

--- a/statistics-runs/balancing-progress.xlsx
+++ b/statistics-runs/balancing-progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\astaria-bot-backend\statistics-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A913396-6F84-43E8-8FE8-4C88368E5BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDC22B1-951F-45C4-9ED3-1E849F6348A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistics" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>paragon</t>
   </si>
@@ -133,17 +133,28 @@
   <si>
     <t>navarch</t>
   </si>
+  <si>
+    <t>24</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,9 +232,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -234,8 +246,140 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="50">
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="204"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -303,116 +447,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <charset val="204"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <charset val="204"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <charset val="204"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <charset val="204"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <charset val="204"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <charset val="204"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <charset val="204"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <charset val="204"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <charset val="204"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <charset val="204"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <charset val="204"/>
-      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
   </dxfs>
@@ -582,9 +616,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>statistics!$B$1:$L$1</c:f>
+              <c:f>statistics!$B$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -618,15 +652,18 @@
                 <c:pt idx="10">
                   <c:v>23</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>statistics!$B$10:$L$10</c:f>
+              <c:f>statistics!$B$10:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.45412730296350989</c:v>
                 </c:pt>
@@ -659,6 +696,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.46517708788219897</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.46599084475364627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,23 +1028,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'statistics-x'!$B$1:$B$1</c:f>
+              <c:f>'statistics-x'!$B$1:$C$1</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'statistics-x'!$B$11:$B$11</c:f>
+              <c:f>'statistics-x'!$B$11:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0.45908644262740039</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46485582924712732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3376,42 +3422,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:L10" totalsRowCount="1">
-  <autoFilter ref="A1:L9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}" name="Table1" displayName="Table1" ref="A1:M10" totalsRowCount="1">
+  <autoFilter ref="A1:M9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{9054F665-F68F-4619-8BF9-CF17D0E63C21}" name="hero" totalsRowLabel="Harmonic Mean"/>
-    <tableColumn id="12" xr3:uid="{23B87AAC-11B7-428A-801F-4A46E206CA45}" name="13" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="42">
+    <tableColumn id="12" xr3:uid="{23B87AAC-11B7-428A-801F-4A46E206CA45}" name="13" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="17">
       <totalsRowFormula>HARMEAN(Table1[13])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{11D631BE-05C5-43E6-BF1A-6948CF622016}" name="14" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="13" xr3:uid="{11D631BE-05C5-43E6-BF1A-6948CF622016}" name="14" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="16">
       <totalsRowFormula>HARMEAN(Table1[14])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2C1650F0-8EF0-4E80-8230-A8F4A1BFA032}" name="15" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
+    <tableColumn id="14" xr3:uid="{2C1650F0-8EF0-4E80-8230-A8F4A1BFA032}" name="15" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="15">
       <totalsRowFormula>HARMEAN(Table1[15])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{7EF89940-2F64-484B-BE10-767C0421D185}" name="16" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="15" xr3:uid="{7EF89940-2F64-484B-BE10-767C0421D185}" name="16" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="14">
       <totalsRowFormula>HARMEAN(Table1[16])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{9E3C59B0-6709-4251-972D-EAEB78EE2D39}" name="17" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="16" xr3:uid="{9E3C59B0-6709-4251-972D-EAEB78EE2D39}" name="17" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="13">
       <totalsRowFormula>HARMEAN(Table1[17])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BD5D8554-7464-4C9C-99E9-84792904905B}" name="18" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="2" xr3:uid="{BD5D8554-7464-4C9C-99E9-84792904905B}" name="18" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="12">
       <totalsRowFormula>HARMEAN(Table1[18])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5C39AC86-DDA7-4372-BB87-C3700EB137C8}" name="19" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="3" xr3:uid="{5C39AC86-DDA7-4372-BB87-C3700EB137C8}" name="19" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="11">
       <totalsRowFormula>HARMEAN(Table1[19])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{27A3584B-B58D-4164-9673-E2EC9C30A996}" name="20" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="4" xr3:uid="{27A3584B-B58D-4164-9673-E2EC9C30A996}" name="20" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="10">
       <totalsRowFormula>HARMEAN(Table1[20])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3C53064C-FE32-4A35-9F10-13B56DC995DE}" name="21" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="5" xr3:uid="{3C53064C-FE32-4A35-9F10-13B56DC995DE}" name="21" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="9">
       <totalsRowFormula>HARMEAN(Table1[21])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9F62685B-3D7B-401B-8E86-8DE3F41D5C7D}" name="22" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="6" xr3:uid="{9F62685B-3D7B-401B-8E86-8DE3F41D5C7D}" name="22" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="8">
       <totalsRowFormula>HARMEAN(Table1[22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{59A96990-8AD9-4B3B-94BA-92CAC52CC7A7}" name="23" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="7" xr3:uid="{59A96990-8AD9-4B3B-94BA-92CAC52CC7A7}" name="23" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="7">
       <totalsRowFormula>HARMEAN(Table1[23])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{9F0C56A8-8519-4C26-98B3-A2C47BF7E032}" name="24" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="6">
+      <totalsRowFormula>HARMEAN(Table1[24])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3419,12 +3468,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C6EC39EE-BD9E-4B2A-96F3-2A43AFA1C680}" name="Table14" displayName="Table14" ref="A1:B11" totalsRowCount="1">
-  <autoFilter ref="A1:B10" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{96A8289A-B86D-45AD-BB48-5D6988FD6594}" name="hero" totalsRowLabel="Harmonic Mean"/>
-    <tableColumn id="12" xr3:uid="{5B1A31F7-ECB4-47B3-88C1-589506A526AC}" name="23" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C6EC39EE-BD9E-4B2A-96F3-2A43AFA1C680}" name="Table14" displayName="Table14" ref="A1:C11" totalsRowCount="1">
+  <autoFilter ref="A1:C10" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{96A8289A-B86D-45AD-BB48-5D6988FD6594}" name="hero" totalsRowLabel="Harmonic Mean" dataDxfId="5" totalsRowDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{5B1A31F7-ECB4-47B3-88C1-589506A526AC}" name="23" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="1">
       <totalsRowFormula>HARMEAN(Table14[23])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{DEBF6DA4-F2D0-4516-9054-36B1FD7B8860}" name="24" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="0">
+      <totalsRowFormula>HARMEAN(Table14[24])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3436,34 +3488,34 @@
   <autoFilter ref="A1:K9" xr:uid="{3C92414E-A68B-46C0-9038-8C20E897643C}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{6701B958-D557-4A63-B324-DE3BF0569903}" name="hero" totalsRowLabel="Harmonic Mean"/>
-    <tableColumn id="2" xr3:uid="{0B915FFC-BE3D-4B9C-915B-B39062E0443A}" name="3" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="2" xr3:uid="{0B915FFC-BE3D-4B9C-915B-B39062E0443A}" name="3" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="48">
       <totalsRowFormula>HARMEAN(Table13[3])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C2436A7A-817C-4295-99FE-D9CF41244BCC}" name="4" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="3" xr3:uid="{C2436A7A-817C-4295-99FE-D9CF41244BCC}" name="4" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="46">
       <totalsRowFormula>HARMEAN(Table13[4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FB891A89-DA25-4151-B1EC-38AE54996BE0}" name="5" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="4" xr3:uid="{FB891A89-DA25-4151-B1EC-38AE54996BE0}" name="5" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="44">
       <totalsRowFormula>HARMEAN(Table13[5])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4B94954F-D922-40C9-A641-8BF8B51ADF79}" name="6" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="5" xr3:uid="{4B94954F-D922-40C9-A641-8BF8B51ADF79}" name="6" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="42">
       <totalsRowFormula>HARMEAN(Table13[6])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1E55BC43-7550-4217-95FF-BE48B312F2CE}" name="7" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="6" xr3:uid="{1E55BC43-7550-4217-95FF-BE48B312F2CE}" name="7" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
       <totalsRowFormula>HARMEAN(Table13[7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{34255DB4-C675-4ED2-890E-A4845855326F}" name="8" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="7" xr3:uid="{34255DB4-C675-4ED2-890E-A4845855326F}" name="8" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
       <totalsRowFormula>HARMEAN(Table13[8])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{87575DE7-4611-486F-935F-E5C2DC546BD7}" name="9" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="8" xr3:uid="{87575DE7-4611-486F-935F-E5C2DC546BD7}" name="9" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
       <totalsRowFormula>HARMEAN(Table13[9])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{59990D58-FD7C-40E6-8A1A-2538EEF85B4E}" name="10" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="9" xr3:uid="{59990D58-FD7C-40E6-8A1A-2538EEF85B4E}" name="10" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
       <totalsRowFormula>HARMEAN(Table13[10])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5D234A32-4748-452C-B4A6-855513592E73}" name="11" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="10" xr3:uid="{5D234A32-4748-452C-B4A6-855513592E73}" name="11" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
       <totalsRowFormula>HARMEAN(Table13[11])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{9B138BD6-395C-45AC-80DF-16AD7603C98E}" name="12" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="11" xr3:uid="{9B138BD6-395C-45AC-80DF-16AD7603C98E}" name="12" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
       <totalsRowFormula>HARMEAN(Table13[12])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -3734,19 +3786,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3783,8 +3835,11 @@
       <c r="L1" t="s">
         <v>30</v>
       </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3821,8 +3876,11 @@
       <c r="L2" s="7">
         <v>0.50389610389610384</v>
       </c>
+      <c r="M2" s="8">
+        <v>0.4961038961038961</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3859,8 +3917,11 @@
       <c r="L3" s="7">
         <v>0.42337662337662335</v>
       </c>
+      <c r="M3" s="8">
+        <v>0.43896103896103894</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3897,8 +3958,11 @@
       <c r="L4" s="7">
         <v>0.4935064935064935</v>
       </c>
+      <c r="M4" s="8">
+        <v>0.48311688311688311</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3935,8 +3999,11 @@
       <c r="L5" s="7">
         <v>0.50649350649350644</v>
       </c>
+      <c r="M5" s="8">
+        <v>0.49090909090909091</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3973,8 +4040,11 @@
       <c r="L6" s="7">
         <v>0.41298701298701301</v>
       </c>
+      <c r="M6" s="8">
+        <v>0.47012987012987012</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4011,8 +4081,11 @@
       <c r="L7" s="7">
         <v>0.48571428571428571</v>
       </c>
+      <c r="M7" s="8">
+        <v>0.48051948051948051</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4049,8 +4122,11 @@
       <c r="L8" s="7">
         <v>0.42857142857142855</v>
       </c>
+      <c r="M8" s="8">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4087,8 +4163,11 @@
       <c r="L9" s="7">
         <v>0.49090909090909091</v>
       </c>
+      <c r="M9" s="8">
+        <v>0.48571428571428571</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -4136,10 +4215,24 @@
         <f>HARMEAN(Table1[23])</f>
         <v>0.46517708788219897</v>
       </c>
+      <c r="M10" s="1">
+        <f>HARMEAN(Table1[24])</f>
+        <v>0.46599084475364627</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B2:B9">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C9">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -4149,7 +4242,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C9">
+  <conditionalFormatting sqref="D2:D9">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -4159,7 +4252,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D9">
+  <conditionalFormatting sqref="E2:E9">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -4169,7 +4262,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E9">
+  <conditionalFormatting sqref="F2:F9">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -4179,18 +4272,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F9">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:L10">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="B10:M10">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4200,7 +4283,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4209,8 +4292,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:L10">
-    <cfRule type="colorScale" priority="41">
+  <conditionalFormatting sqref="B10:M10">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4222,6 +4305,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G9">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H9">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -4231,7 +4324,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H9">
+  <conditionalFormatting sqref="I2:I9">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -4241,8 +4334,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I9">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="J2:J9">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4250,17 +4343,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J9">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4272,6 +4355,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4281,7 +4374,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L9">
+  <conditionalFormatting sqref="M2:M9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4302,110 +4395,144 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1433F3-E107-4BA6-A0F1-01D318623B78}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>30</v>
       </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>0.47682119205298013</v>
       </c>
+      <c r="C2" s="1">
+        <v>0.48841059602649006</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>0.45198675496688739</v>
       </c>
+      <c r="C3" s="1">
+        <v>0.44701986754966888</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>0.52814569536423839</v>
       </c>
+      <c r="C4" s="1">
+        <v>0.51324503311258274</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>0.53476821192052981</v>
       </c>
+      <c r="C5" s="1">
+        <v>0.49172185430463577</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>0.42880794701986757</v>
       </c>
+      <c r="C6" s="1">
+        <v>0.48344370860927155</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>0.48675496688741721</v>
       </c>
+      <c r="C7" s="1">
+        <v>0.45860927152317882</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>0.43377483443708609</v>
       </c>
+      <c r="C8" s="1">
+        <v>0.41390728476821192</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>0.54966887417218546</v>
       </c>
+      <c r="C9" s="1">
+        <v>0.53476821192052981</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="7">
         <v>0.33112582781456956</v>
       </c>
+      <c r="C10" s="1">
+        <v>0.39072847682119205</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1">
         <f>HARMEAN(Table14[23])</f>
         <v>0.45908644262740039</v>
       </c>
+      <c r="C11" s="1">
+        <f>HARMEAN(Table14[24])</f>
+        <v>0.46485582924712732</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B10">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4414,8 +4541,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="colorScale" priority="42">
+  <conditionalFormatting sqref="B11:C11">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4425,7 +4552,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4434,14 +4561,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="colorScale" priority="44">
+  <conditionalFormatting sqref="B11:C11">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
